--- a/DuleCard/配置表/卡牌配置表.xlsx
+++ b/DuleCard/配置表/卡牌配置表.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\itemIng\DueCard\SuperCard\配置表\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24855" windowHeight="11595"/>
+    <workbookView windowWidth="28245" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="CardCfg" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="274">
   <si>
     <t>a</t>
   </si>
@@ -103,6 +98,9 @@
   </si>
   <si>
     <t>Zhaoshi</t>
+  </si>
+  <si>
+    <t>BackGround</t>
   </si>
   <si>
     <t>Mana</t>
@@ -805,6 +803,9 @@
     <t>对敌人造成8点伤害并削散8点内力</t>
   </si>
   <si>
+    <t>46006;46007</t>
+  </si>
+  <si>
     <t>九阳一式</t>
   </si>
   <si>
@@ -872,17 +873,19 @@
   </si>
   <si>
     <t>{内力≥敌方内力}获得内力差的攻击值</t>
-  </si>
-  <si>
-    <t>BackGround</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -954,28 +957,345 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -983,12 +1303,254 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1117,6 +1679,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1223,33 +1788,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
-      <color rgb="FFFF0000"/>
+      <color rgb="00FF0000"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1536,19 +2136,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:CX173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="K126" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="Q146" sqref="Q146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1574,7 +2175,7 @@
     <col min="16374" max="16384" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:16">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1582,20 +2183,20 @@
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="9"/>
-      <c r="F1" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="90" t="s">
+      <c r="F1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="42"/>
       <c r="J1" s="43"/>
       <c r="P1" s="44"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:16">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1603,9 +2204,9 @@
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
       <c r="I2" s="44"/>
       <c r="J2" s="43"/>
       <c r="L2" s="4">
@@ -1616,7 +2217,7 @@
       </c>
       <c r="P2" s="44"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:16">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -1624,9 +2225,9 @@
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
       <c r="I3" s="44"/>
       <c r="J3" s="43"/>
       <c r="M3" s="3">
@@ -1634,7 +2235,7 @@
       </c>
       <c r="P3" s="44"/>
     </row>
-    <row r="4" spans="1:18" ht="75.95" customHeight="1">
+    <row r="4" ht="75.95" customHeight="1" spans="1:17">
       <c r="A4" s="7"/>
       <c r="B4" s="11" t="s">
         <v>4</v>
@@ -1646,9 +2247,9 @@
       <c r="E4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
       <c r="I4" s="11" t="s">
         <v>7</v>
       </c>
@@ -1698,35 +2299,35 @@
       <c r="H5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="92" t="s">
-        <v>272</v>
-      </c>
-      <c r="J5" s="50" t="s">
+      <c r="I5" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="K5" s="51" t="s">
+      <c r="J5" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="51" t="s">
+      <c r="K5" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="M5" s="51" t="s">
+      <c r="L5" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="51" t="s">
+      <c r="M5" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="52" t="s">
+      <c r="N5" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="P5" s="53" t="s">
+      <c r="O5" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="Q5" s="67" t="s">
+      <c r="P5" s="54" t="s">
         <v>29</v>
       </c>
+      <c r="Q5" s="68" t="s">
+        <v>30</v>
+      </c>
       <c r="R5" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -1734,7 +2335,7 @@
         <v>11011</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="19">
         <v>1101</v>
@@ -1752,27 +2353,27 @@
         <v>1</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="J6" s="55">
-        <v>1</v>
-      </c>
-      <c r="K6" s="55">
-        <v>1</v>
-      </c>
-      <c r="L6" s="55">
-        <v>0</v>
-      </c>
-      <c r="M6" s="55">
-        <v>0</v>
-      </c>
-      <c r="N6" s="56"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="68"/>
+      <c r="I6" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="56">
+        <v>1</v>
+      </c>
+      <c r="K6" s="56">
+        <v>1</v>
+      </c>
+      <c r="L6" s="56">
+        <v>0</v>
+      </c>
+      <c r="M6" s="56">
+        <v>0</v>
+      </c>
+      <c r="N6" s="57"/>
+      <c r="O6" s="58"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="69"/>
       <c r="R6" s="13"/>
     </row>
     <row r="7" spans="1:18">
@@ -1780,7 +2381,7 @@
         <v>11012</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="19">
         <v>1101</v>
@@ -1798,27 +2399,27 @@
         <v>1</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="59">
-        <v>1</v>
-      </c>
-      <c r="K7" s="59">
-        <v>1</v>
-      </c>
-      <c r="L7" s="59">
-        <v>0</v>
-      </c>
-      <c r="M7" s="59">
-        <v>1</v>
-      </c>
-      <c r="N7" s="56"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="68"/>
+      <c r="I7" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="60">
+        <v>1</v>
+      </c>
+      <c r="K7" s="60">
+        <v>1</v>
+      </c>
+      <c r="L7" s="60">
+        <v>0</v>
+      </c>
+      <c r="M7" s="60">
+        <v>1</v>
+      </c>
+      <c r="N7" s="57"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="69"/>
       <c r="R7" s="13"/>
     </row>
     <row r="8" spans="1:18">
@@ -1826,7 +2427,7 @@
         <v>11013</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="19">
         <v>1101</v>
@@ -1844,29 +2445,29 @@
         <v>1</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="59">
-        <v>2</v>
-      </c>
-      <c r="K8" s="59">
-        <v>1</v>
-      </c>
-      <c r="L8" s="59">
-        <v>1</v>
-      </c>
-      <c r="M8" s="59">
-        <v>1</v>
-      </c>
-      <c r="N8" s="56"/>
-      <c r="O8" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="68"/>
+      <c r="I8" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="60">
+        <v>2</v>
+      </c>
+      <c r="K8" s="60">
+        <v>1</v>
+      </c>
+      <c r="L8" s="60">
+        <v>1</v>
+      </c>
+      <c r="M8" s="60">
+        <v>1</v>
+      </c>
+      <c r="N8" s="57"/>
+      <c r="O8" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="59"/>
+      <c r="Q8" s="69"/>
       <c r="R8" s="13"/>
     </row>
     <row r="9" spans="1:18">
@@ -1874,7 +2475,7 @@
         <v>11014</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" s="19">
         <v>1101</v>
@@ -1892,35 +2493,35 @@
         <v>1</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="55">
-        <v>2</v>
-      </c>
-      <c r="K9" s="55">
-        <v>2</v>
-      </c>
-      <c r="L9" s="55">
-        <v>0</v>
-      </c>
-      <c r="M9" s="55">
-        <v>0</v>
-      </c>
-      <c r="N9" s="56"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="68"/>
+      <c r="I9" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="56">
+        <v>2</v>
+      </c>
+      <c r="K9" s="56">
+        <v>2</v>
+      </c>
+      <c r="L9" s="56">
+        <v>0</v>
+      </c>
+      <c r="M9" s="56">
+        <v>0</v>
+      </c>
+      <c r="N9" s="57"/>
+      <c r="O9" s="58"/>
+      <c r="P9" s="59"/>
+      <c r="Q9" s="69"/>
       <c r="R9" s="13"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:17">
       <c r="A10" s="23">
         <v>13021</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="23">
         <v>1302</v>
@@ -1938,33 +2539,33 @@
         <v>3</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="J10" s="59">
-        <v>1</v>
-      </c>
-      <c r="K10" s="59">
-        <v>1</v>
-      </c>
-      <c r="L10" s="59">
-        <v>0</v>
-      </c>
-      <c r="M10" s="59">
+      <c r="I10" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="60">
+        <v>1</v>
+      </c>
+      <c r="K10" s="60">
+        <v>1</v>
+      </c>
+      <c r="L10" s="60">
+        <v>0</v>
+      </c>
+      <c r="M10" s="60">
         <v>1</v>
       </c>
       <c r="N10" s="4"/>
-      <c r="O10" s="61"/>
+      <c r="O10" s="62"/>
       <c r="Q10" s="6"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:17">
       <c r="A11" s="23">
         <v>13022</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="23">
         <v>1302</v>
@@ -1982,35 +2583,35 @@
         <v>3</v>
       </c>
       <c r="H11" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="59">
-        <v>1</v>
-      </c>
-      <c r="K11" s="59">
-        <v>1</v>
-      </c>
-      <c r="L11" s="59">
-        <v>1</v>
-      </c>
-      <c r="M11" s="59">
+      <c r="I11" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="60">
+        <v>1</v>
+      </c>
+      <c r="K11" s="60">
+        <v>1</v>
+      </c>
+      <c r="L11" s="60">
+        <v>1</v>
+      </c>
+      <c r="M11" s="60">
         <v>0</v>
       </c>
       <c r="N11" s="4"/>
-      <c r="O11" s="60" t="s">
-        <v>36</v>
+      <c r="O11" s="61" t="s">
+        <v>37</v>
       </c>
       <c r="Q11" s="6"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:17">
       <c r="A12" s="23">
         <v>13023</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C12" s="23">
         <v>1302</v>
@@ -2028,33 +2629,33 @@
         <v>3</v>
       </c>
       <c r="H12" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="J12" s="59">
-        <v>1</v>
-      </c>
-      <c r="K12" s="59">
-        <v>1</v>
-      </c>
-      <c r="L12" s="59">
-        <v>0</v>
-      </c>
-      <c r="M12" s="59">
+      <c r="I12" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="60">
+        <v>1</v>
+      </c>
+      <c r="K12" s="60">
+        <v>1</v>
+      </c>
+      <c r="L12" s="60">
+        <v>0</v>
+      </c>
+      <c r="M12" s="60">
         <v>0</v>
       </c>
       <c r="N12" s="4"/>
-      <c r="O12" s="61"/>
+      <c r="O12" s="62"/>
       <c r="Q12" s="6"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:17">
       <c r="A13" s="23">
         <v>13024</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="23">
         <v>1302</v>
@@ -2072,33 +2673,33 @@
         <v>3</v>
       </c>
       <c r="H13" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="59">
-        <v>2</v>
-      </c>
-      <c r="K13" s="59">
-        <v>2</v>
-      </c>
-      <c r="L13" s="59">
-        <v>0</v>
-      </c>
-      <c r="M13" s="59">
+      <c r="I13" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="60">
+        <v>2</v>
+      </c>
+      <c r="K13" s="60">
+        <v>2</v>
+      </c>
+      <c r="L13" s="60">
+        <v>0</v>
+      </c>
+      <c r="M13" s="60">
         <v>1</v>
       </c>
       <c r="N13" s="4"/>
-      <c r="O13" s="61"/>
+      <c r="O13" s="62"/>
       <c r="Q13" s="6"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:17">
       <c r="A14" s="23">
         <v>13025</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="23">
         <v>1302</v>
@@ -2116,35 +2717,35 @@
         <v>3</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="J14" s="59">
-        <v>2</v>
-      </c>
-      <c r="K14" s="59">
-        <v>2</v>
-      </c>
-      <c r="L14" s="59">
-        <v>1</v>
-      </c>
-      <c r="M14" s="59">
+      <c r="I14" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="60">
+        <v>2</v>
+      </c>
+      <c r="K14" s="60">
+        <v>2</v>
+      </c>
+      <c r="L14" s="60">
+        <v>1</v>
+      </c>
+      <c r="M14" s="60">
         <v>0</v>
       </c>
       <c r="N14" s="4"/>
-      <c r="O14" s="60" t="s">
-        <v>36</v>
+      <c r="O14" s="61" t="s">
+        <v>37</v>
       </c>
       <c r="Q14" s="6"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:17">
       <c r="A15" s="23">
         <v>13026</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C15" s="23">
         <v>1302</v>
@@ -2162,33 +2763,33 @@
         <v>3</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="59">
-        <v>3</v>
-      </c>
-      <c r="K15" s="59">
-        <v>4</v>
-      </c>
-      <c r="L15" s="59">
-        <v>0</v>
-      </c>
-      <c r="M15" s="59">
+      <c r="I15" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="J15" s="60">
+        <v>3</v>
+      </c>
+      <c r="K15" s="60">
+        <v>4</v>
+      </c>
+      <c r="L15" s="60">
+        <v>0</v>
+      </c>
+      <c r="M15" s="60">
         <v>0</v>
       </c>
       <c r="N15" s="4"/>
-      <c r="O15" s="61"/>
+      <c r="O15" s="62"/>
       <c r="Q15" s="6"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:16">
       <c r="A16" s="28">
         <v>14031</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C16" s="23">
         <v>1403</v>
@@ -2206,35 +2807,35 @@
         <v>4</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I16" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="J16" s="55">
-        <v>1</v>
-      </c>
-      <c r="K16" s="55">
-        <v>0</v>
-      </c>
-      <c r="L16" s="55">
-        <v>1</v>
-      </c>
-      <c r="M16" s="55">
+      <c r="I16" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="56">
+        <v>1</v>
+      </c>
+      <c r="K16" s="56">
+        <v>0</v>
+      </c>
+      <c r="L16" s="56">
+        <v>1</v>
+      </c>
+      <c r="M16" s="56">
         <v>1</v>
       </c>
       <c r="N16" s="4"/>
-      <c r="O16" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="P16" s="62"/>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="O16" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="P16" s="63"/>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="28">
         <v>14032</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" s="23">
         <v>1403</v>
@@ -2252,33 +2853,33 @@
         <v>4</v>
       </c>
       <c r="H17" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="J17" s="55">
-        <v>1</v>
-      </c>
-      <c r="K17" s="55">
-        <v>0</v>
-      </c>
-      <c r="L17" s="55">
-        <v>0</v>
-      </c>
-      <c r="M17" s="55">
+      <c r="I17" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="56">
+        <v>1</v>
+      </c>
+      <c r="K17" s="56">
+        <v>0</v>
+      </c>
+      <c r="L17" s="56">
+        <v>0</v>
+      </c>
+      <c r="M17" s="56">
         <v>2</v>
       </c>
       <c r="N17" s="4"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="62"/>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="O17" s="62"/>
+      <c r="P17" s="63"/>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="28">
         <v>14033</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C18" s="23">
         <v>1403</v>
@@ -2296,35 +2897,35 @@
         <v>4</v>
       </c>
       <c r="H18" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="J18" s="55">
-        <v>2</v>
-      </c>
-      <c r="K18" s="55">
-        <v>0</v>
-      </c>
-      <c r="L18" s="55">
-        <v>1</v>
-      </c>
-      <c r="M18" s="55">
+      <c r="I18" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="56">
+        <v>2</v>
+      </c>
+      <c r="K18" s="56">
+        <v>0</v>
+      </c>
+      <c r="L18" s="56">
+        <v>1</v>
+      </c>
+      <c r="M18" s="56">
         <v>3</v>
       </c>
       <c r="N18" s="4"/>
-      <c r="O18" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="P18" s="62"/>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="O18" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="P18" s="63"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="28">
         <v>15031</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C19" s="23">
         <v>1503</v>
@@ -2342,32 +2943,32 @@
         <v>5</v>
       </c>
       <c r="H19" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="J19" s="55">
+      <c r="I19" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="56">
         <v>-1</v>
       </c>
-      <c r="K19" s="55">
-        <v>0</v>
-      </c>
-      <c r="L19" s="55">
-        <v>0</v>
-      </c>
-      <c r="M19" s="55">
+      <c r="K19" s="56">
+        <v>0</v>
+      </c>
+      <c r="L19" s="56">
+        <v>0</v>
+      </c>
+      <c r="M19" s="56">
         <v>1</v>
       </c>
       <c r="N19" s="4"/>
-      <c r="O19" s="61"/>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="O19" s="62"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="28">
         <v>15032</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="23">
         <v>1503</v>
@@ -2385,32 +2986,32 @@
         <v>5</v>
       </c>
       <c r="H20" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="I20" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="55">
+      <c r="I20" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="56">
         <v>-1</v>
       </c>
-      <c r="K20" s="55">
-        <v>0</v>
-      </c>
-      <c r="L20" s="55">
-        <v>0</v>
-      </c>
-      <c r="M20" s="55">
+      <c r="K20" s="56">
+        <v>0</v>
+      </c>
+      <c r="L20" s="56">
+        <v>0</v>
+      </c>
+      <c r="M20" s="56">
         <v>1</v>
       </c>
       <c r="N20" s="4"/>
-      <c r="O20" s="61"/>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="O20" s="62"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="28">
         <v>15033</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C21" s="23">
         <v>1503</v>
@@ -2428,32 +3029,32 @@
         <v>5</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="I21" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="55">
+      <c r="I21" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="56">
         <v>-1</v>
       </c>
-      <c r="K21" s="55">
-        <v>0</v>
-      </c>
-      <c r="L21" s="55">
-        <v>0</v>
-      </c>
-      <c r="M21" s="55">
+      <c r="K21" s="56">
+        <v>0</v>
+      </c>
+      <c r="L21" s="56">
+        <v>0</v>
+      </c>
+      <c r="M21" s="56">
         <v>1</v>
       </c>
       <c r="N21" s="4"/>
-      <c r="O21" s="61"/>
+      <c r="O21" s="62"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="23">
         <v>21011</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C22" s="23">
         <v>2101</v>
@@ -2471,25 +3072,25 @@
         <v>1</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="55">
-        <v>1</v>
-      </c>
-      <c r="K22" s="55">
-        <v>0</v>
-      </c>
-      <c r="L22" s="55">
-        <v>0</v>
-      </c>
-      <c r="M22" s="55">
+      <c r="I22" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="J22" s="56">
+        <v>1</v>
+      </c>
+      <c r="K22" s="56">
+        <v>0</v>
+      </c>
+      <c r="L22" s="56">
+        <v>0</v>
+      </c>
+      <c r="M22" s="56">
         <v>2</v>
       </c>
       <c r="N22" s="4"/>
-      <c r="O22" s="61"/>
+      <c r="O22" s="62"/>
       <c r="P22" s="44"/>
       <c r="Q22" s="7"/>
     </row>
@@ -2498,7 +3099,7 @@
         <v>21012</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C23" s="23">
         <v>2101</v>
@@ -2516,25 +3117,25 @@
         <v>1</v>
       </c>
       <c r="H23" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I23" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="J23" s="59">
-        <v>1</v>
-      </c>
-      <c r="K23" s="59">
-        <v>1</v>
-      </c>
-      <c r="L23" s="59">
-        <v>0</v>
-      </c>
-      <c r="M23" s="59">
+      <c r="I23" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="60">
+        <v>1</v>
+      </c>
+      <c r="K23" s="60">
+        <v>1</v>
+      </c>
+      <c r="L23" s="60">
+        <v>0</v>
+      </c>
+      <c r="M23" s="60">
         <v>1</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="60"/>
+      <c r="O23" s="61"/>
       <c r="P23" s="44"/>
       <c r="Q23" s="7"/>
     </row>
@@ -2543,7 +3144,7 @@
         <v>21013</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C24" s="23">
         <v>2101</v>
@@ -2561,21 +3162,21 @@
         <v>1</v>
       </c>
       <c r="H24" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I24" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="59">
-        <v>2</v>
-      </c>
-      <c r="K24" s="59">
-        <v>1</v>
-      </c>
-      <c r="L24" s="59">
-        <v>0</v>
-      </c>
-      <c r="M24" s="59">
+      <c r="I24" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="60">
+        <v>2</v>
+      </c>
+      <c r="K24" s="60">
+        <v>1</v>
+      </c>
+      <c r="L24" s="60">
+        <v>0</v>
+      </c>
+      <c r="M24" s="60">
         <v>2</v>
       </c>
       <c r="N24" s="4"/>
@@ -2587,7 +3188,7 @@
         <v>21014</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="23">
         <v>2101</v>
@@ -2605,25 +3206,25 @@
         <v>1</v>
       </c>
       <c r="H25" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I25" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="59">
-        <v>2</v>
-      </c>
-      <c r="K25" s="59">
-        <v>2</v>
-      </c>
-      <c r="L25" s="59">
-        <v>0</v>
-      </c>
-      <c r="M25" s="59">
+      <c r="I25" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="60">
+        <v>2</v>
+      </c>
+      <c r="K25" s="60">
+        <v>2</v>
+      </c>
+      <c r="L25" s="60">
+        <v>0</v>
+      </c>
+      <c r="M25" s="60">
         <v>0</v>
       </c>
       <c r="N25" s="4"/>
-      <c r="O25" s="60"/>
+      <c r="O25" s="61"/>
       <c r="P25" s="44"/>
       <c r="Q25" s="7"/>
     </row>
@@ -2632,7 +3233,7 @@
         <v>21015</v>
       </c>
       <c r="B26" s="33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C26" s="23">
         <v>2101</v>
@@ -2650,21 +3251,21 @@
         <v>1</v>
       </c>
       <c r="H26" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I26" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="59">
-        <v>2</v>
-      </c>
-      <c r="K26" s="59">
-        <v>1</v>
-      </c>
-      <c r="L26" s="59">
-        <v>0</v>
-      </c>
-      <c r="M26" s="59">
+      <c r="I26" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="60">
+        <v>2</v>
+      </c>
+      <c r="K26" s="60">
+        <v>1</v>
+      </c>
+      <c r="L26" s="60">
+        <v>0</v>
+      </c>
+      <c r="M26" s="60">
         <v>2</v>
       </c>
       <c r="N26" s="4"/>
@@ -2676,7 +3277,7 @@
         <v>21016</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" s="23">
         <v>2101</v>
@@ -2694,29 +3295,29 @@
         <v>1</v>
       </c>
       <c r="H27" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="I27" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="55">
-        <v>3</v>
-      </c>
-      <c r="K27" s="55">
-        <v>3</v>
-      </c>
-      <c r="L27" s="55">
-        <v>0</v>
-      </c>
-      <c r="M27" s="55">
+      <c r="I27" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" s="56">
+        <v>3</v>
+      </c>
+      <c r="K27" s="56">
+        <v>3</v>
+      </c>
+      <c r="L27" s="56">
+        <v>0</v>
+      </c>
+      <c r="M27" s="56">
         <v>1</v>
       </c>
       <c r="N27" s="4"/>
-      <c r="O27" s="60" t="s">
-        <v>64</v>
+      <c r="O27" s="61" t="s">
+        <v>65</v>
       </c>
       <c r="P27" s="44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q27" s="7">
         <v>21201</v>
@@ -2727,7 +3328,7 @@
         <v>21021</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C28" s="23">
         <v>2102</v>
@@ -2745,25 +3346,25 @@
         <v>1</v>
       </c>
       <c r="H28" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I28" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="J28" s="55">
-        <v>2</v>
-      </c>
-      <c r="K28" s="55">
-        <v>2</v>
-      </c>
-      <c r="L28" s="55">
-        <v>0</v>
-      </c>
-      <c r="M28" s="55">
+      <c r="I28" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" s="56">
+        <v>2</v>
+      </c>
+      <c r="K28" s="56">
+        <v>2</v>
+      </c>
+      <c r="L28" s="56">
+        <v>0</v>
+      </c>
+      <c r="M28" s="56">
         <v>0</v>
       </c>
       <c r="N28" s="4"/>
-      <c r="O28" s="60"/>
+      <c r="O28" s="61"/>
       <c r="P28" s="44"/>
       <c r="Q28" s="7"/>
     </row>
@@ -2772,7 +3373,7 @@
         <v>21022</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="23">
         <v>2102</v>
@@ -2790,25 +3391,25 @@
         <v>1</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="J29" s="59">
-        <v>2</v>
-      </c>
-      <c r="K29" s="59">
-        <v>2</v>
-      </c>
-      <c r="L29" s="59">
-        <v>0</v>
-      </c>
-      <c r="M29" s="59">
+      <c r="I29" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="J29" s="60">
+        <v>2</v>
+      </c>
+      <c r="K29" s="60">
+        <v>2</v>
+      </c>
+      <c r="L29" s="60">
+        <v>0</v>
+      </c>
+      <c r="M29" s="60">
         <v>1</v>
       </c>
       <c r="N29" s="4"/>
-      <c r="O29" s="60"/>
+      <c r="O29" s="61"/>
       <c r="P29" s="44"/>
       <c r="Q29" s="7"/>
     </row>
@@ -2817,7 +3418,7 @@
         <v>21023</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="23">
         <v>2102</v>
@@ -2835,25 +3436,25 @@
         <v>1</v>
       </c>
       <c r="H30" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I30" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="J30" s="59">
-        <v>3</v>
-      </c>
-      <c r="K30" s="59">
-        <v>2</v>
-      </c>
-      <c r="L30" s="59">
-        <v>0</v>
-      </c>
-      <c r="M30" s="59">
+      <c r="I30" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="J30" s="60">
+        <v>3</v>
+      </c>
+      <c r="K30" s="60">
+        <v>2</v>
+      </c>
+      <c r="L30" s="60">
+        <v>0</v>
+      </c>
+      <c r="M30" s="60">
         <v>2</v>
       </c>
       <c r="N30" s="4"/>
-      <c r="O30" s="60"/>
+      <c r="O30" s="61"/>
       <c r="P30" s="44"/>
       <c r="Q30" s="7"/>
     </row>
@@ -2862,7 +3463,7 @@
         <v>21024</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="23">
         <v>2102</v>
@@ -2880,25 +3481,25 @@
         <v>1</v>
       </c>
       <c r="H31" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I31" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="J31" s="59">
-        <v>3</v>
-      </c>
-      <c r="K31" s="59">
-        <v>3</v>
-      </c>
-      <c r="L31" s="59">
-        <v>0</v>
-      </c>
-      <c r="M31" s="59">
+      <c r="I31" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="J31" s="60">
+        <v>3</v>
+      </c>
+      <c r="K31" s="60">
+        <v>3</v>
+      </c>
+      <c r="L31" s="60">
+        <v>0</v>
+      </c>
+      <c r="M31" s="60">
         <v>1</v>
       </c>
       <c r="N31" s="4"/>
-      <c r="O31" s="60"/>
+      <c r="O31" s="61"/>
       <c r="P31" s="44"/>
       <c r="Q31" s="7"/>
     </row>
@@ -2907,7 +3508,7 @@
         <v>21025</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="23">
         <v>2102</v>
@@ -2925,26 +3526,26 @@
         <v>1</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I32" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="J32" s="59">
-        <v>3</v>
-      </c>
-      <c r="K32" s="59">
-        <v>3</v>
-      </c>
-      <c r="L32" s="59">
-        <v>0</v>
-      </c>
-      <c r="M32" s="59">
+      <c r="I32" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" s="60">
+        <v>3</v>
+      </c>
+      <c r="K32" s="60">
+        <v>3</v>
+      </c>
+      <c r="L32" s="60">
+        <v>0</v>
+      </c>
+      <c r="M32" s="60">
         <v>1</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q32" s="44">
         <v>21105</v>
@@ -2955,7 +3556,7 @@
         <v>21026</v>
       </c>
       <c r="B33" s="35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="23">
         <v>2102</v>
@@ -2973,38 +3574,38 @@
         <v>1</v>
       </c>
       <c r="H33" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="I33" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="J33" s="55">
-        <v>2</v>
-      </c>
-      <c r="K33" s="55">
-        <v>0</v>
-      </c>
-      <c r="L33" s="55">
-        <v>0</v>
-      </c>
-      <c r="M33" s="55">
+      <c r="I33" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="J33" s="56">
+        <v>2</v>
+      </c>
+      <c r="K33" s="56">
+        <v>0</v>
+      </c>
+      <c r="L33" s="56">
+        <v>0</v>
+      </c>
+      <c r="M33" s="56">
         <v>0</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P33" s="44" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q33" s="7"/>
     </row>
-    <row r="34" spans="1:17" s="1" customFormat="1">
+    <row r="34" s="1" customFormat="1" spans="1:17">
       <c r="A34" s="28">
         <v>23011</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C34" s="19">
         <v>2301</v>
@@ -3022,34 +3623,34 @@
         <v>3</v>
       </c>
       <c r="H34" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="I34" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="J34" s="55">
-        <v>1</v>
-      </c>
-      <c r="K34" s="55">
-        <v>0</v>
-      </c>
-      <c r="L34" s="55">
-        <v>0</v>
-      </c>
-      <c r="M34" s="55">
+      <c r="I34" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="J34" s="56">
+        <v>1</v>
+      </c>
+      <c r="K34" s="56">
+        <v>0</v>
+      </c>
+      <c r="L34" s="56">
+        <v>0</v>
+      </c>
+      <c r="M34" s="56">
         <v>2</v>
       </c>
       <c r="N34" s="4"/>
-      <c r="O34" s="61"/>
-      <c r="P34" s="63"/>
-      <c r="Q34" s="66"/>
-    </row>
-    <row r="35" spans="1:17" s="1" customFormat="1">
+      <c r="O34" s="62"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="67"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:17">
       <c r="A35" s="28">
         <v>23012</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C35" s="19">
         <v>2301</v>
@@ -3067,34 +3668,34 @@
         <v>3</v>
       </c>
       <c r="H35" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="I35" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="J35" s="59">
-        <v>1</v>
-      </c>
-      <c r="K35" s="59">
-        <v>1</v>
-      </c>
-      <c r="L35" s="59">
-        <v>0</v>
-      </c>
-      <c r="M35" s="59">
+      <c r="I35" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" s="60">
+        <v>1</v>
+      </c>
+      <c r="K35" s="60">
+        <v>1</v>
+      </c>
+      <c r="L35" s="60">
+        <v>0</v>
+      </c>
+      <c r="M35" s="60">
         <v>0</v>
       </c>
       <c r="N35" s="4"/>
-      <c r="O35" s="61"/>
-      <c r="P35" s="63"/>
-      <c r="Q35" s="66"/>
-    </row>
-    <row r="36" spans="1:17" s="1" customFormat="1">
+      <c r="O35" s="62"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="67"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:17">
       <c r="A36" s="28">
         <v>23013</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C36" s="19">
         <v>2301</v>
@@ -3112,34 +3713,34 @@
         <v>3</v>
       </c>
       <c r="H36" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="I36" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="J36" s="59">
-        <v>2</v>
-      </c>
-      <c r="K36" s="59">
-        <v>1</v>
-      </c>
-      <c r="L36" s="59">
-        <v>0</v>
-      </c>
-      <c r="M36" s="59">
+      <c r="I36" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" s="60">
+        <v>2</v>
+      </c>
+      <c r="K36" s="60">
+        <v>1</v>
+      </c>
+      <c r="L36" s="60">
+        <v>0</v>
+      </c>
+      <c r="M36" s="60">
         <v>2</v>
       </c>
       <c r="N36" s="4"/>
-      <c r="O36" s="61"/>
-      <c r="P36" s="63"/>
-      <c r="Q36" s="66"/>
-    </row>
-    <row r="37" spans="1:17" s="1" customFormat="1">
+      <c r="O36" s="62"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="67"/>
+    </row>
+    <row r="37" s="1" customFormat="1" spans="1:17">
       <c r="A37" s="28">
         <v>23014</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C37" s="19">
         <v>2301</v>
@@ -3157,34 +3758,34 @@
         <v>3</v>
       </c>
       <c r="H37" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="I37" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="J37" s="59">
-        <v>2</v>
-      </c>
-      <c r="K37" s="59">
-        <v>2</v>
-      </c>
-      <c r="L37" s="59">
-        <v>0</v>
-      </c>
-      <c r="M37" s="59">
+      <c r="I37" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="J37" s="60">
+        <v>2</v>
+      </c>
+      <c r="K37" s="60">
+        <v>2</v>
+      </c>
+      <c r="L37" s="60">
+        <v>0</v>
+      </c>
+      <c r="M37" s="60">
         <v>0</v>
       </c>
       <c r="N37" s="4"/>
-      <c r="O37" s="61"/>
-      <c r="P37" s="63"/>
-      <c r="Q37" s="66"/>
-    </row>
-    <row r="38" spans="1:17" s="1" customFormat="1">
+      <c r="O37" s="62"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="67"/>
+    </row>
+    <row r="38" s="1" customFormat="1" spans="1:17">
       <c r="A38" s="28">
         <v>23015</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C38" s="19">
         <v>2301</v>
@@ -3202,34 +3803,34 @@
         <v>3</v>
       </c>
       <c r="H38" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="I38" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="J38" s="59">
-        <v>2</v>
-      </c>
-      <c r="K38" s="59">
-        <v>2</v>
-      </c>
-      <c r="L38" s="59">
-        <v>0</v>
-      </c>
-      <c r="M38" s="59">
+      <c r="I38" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="J38" s="60">
+        <v>2</v>
+      </c>
+      <c r="K38" s="60">
+        <v>2</v>
+      </c>
+      <c r="L38" s="60">
+        <v>0</v>
+      </c>
+      <c r="M38" s="60">
         <v>1</v>
       </c>
       <c r="N38" s="4"/>
-      <c r="O38" s="61"/>
-      <c r="P38" s="63"/>
-      <c r="Q38" s="66"/>
-    </row>
-    <row r="39" spans="1:17" s="1" customFormat="1">
+      <c r="O38" s="62"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="67"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:17">
       <c r="A39" s="28">
         <v>23016</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" s="19">
         <v>2301</v>
@@ -3247,38 +3848,38 @@
         <v>3</v>
       </c>
       <c r="H39" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="I39" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="J39" s="59">
-        <v>3</v>
-      </c>
-      <c r="K39" s="59">
-        <v>3</v>
-      </c>
-      <c r="L39" s="59">
-        <v>0</v>
-      </c>
-      <c r="M39" s="59">
+      <c r="I39" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="J39" s="60">
+        <v>3</v>
+      </c>
+      <c r="K39" s="60">
+        <v>3</v>
+      </c>
+      <c r="L39" s="60">
+        <v>0</v>
+      </c>
+      <c r="M39" s="60">
         <v>1</v>
       </c>
       <c r="N39" s="4"/>
-      <c r="O39" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="69" t="s">
+      <c r="O39" s="62" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
+      <c r="P39" s="64"/>
+      <c r="Q39" s="70" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="15" customHeight="1" spans="1:17">
       <c r="A40" s="28">
         <v>23017</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C40" s="19">
         <v>2301</v>
@@ -3296,38 +3897,38 @@
         <v>3</v>
       </c>
       <c r="H40" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="I40" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="J40" s="55">
-        <v>3</v>
-      </c>
-      <c r="K40" s="55">
-        <v>0</v>
-      </c>
-      <c r="L40" s="55">
-        <v>0</v>
-      </c>
-      <c r="M40" s="55">
+      <c r="I40" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="J40" s="56">
+        <v>3</v>
+      </c>
+      <c r="K40" s="56">
+        <v>0</v>
+      </c>
+      <c r="L40" s="56">
+        <v>0</v>
+      </c>
+      <c r="M40" s="56">
         <v>0</v>
       </c>
       <c r="N40" s="4"/>
-      <c r="O40" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="66">
+      <c r="O40" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="67">
         <v>13011</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="1" customFormat="1">
+    <row r="41" s="1" customFormat="1" spans="1:17">
       <c r="A41" s="28">
         <v>24011</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C41" s="19">
         <v>2401</v>
@@ -3345,34 +3946,34 @@
         <v>4</v>
       </c>
       <c r="H41" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="I41" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="J41" s="55">
-        <v>1</v>
-      </c>
-      <c r="K41" s="55">
-        <v>0</v>
-      </c>
-      <c r="L41" s="55">
-        <v>0</v>
-      </c>
-      <c r="M41" s="55">
+      <c r="I41" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="J41" s="56">
+        <v>1</v>
+      </c>
+      <c r="K41" s="56">
+        <v>0</v>
+      </c>
+      <c r="L41" s="56">
+        <v>0</v>
+      </c>
+      <c r="M41" s="56">
         <v>2</v>
       </c>
       <c r="N41" s="4"/>
-      <c r="O41" s="61"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="66"/>
-    </row>
-    <row r="42" spans="1:17" s="1" customFormat="1">
+      <c r="O41" s="62"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="67"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:17">
       <c r="A42" s="28">
         <v>24012</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C42" s="19">
         <v>2401</v>
@@ -3390,36 +3991,36 @@
         <v>4</v>
       </c>
       <c r="H42" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="I42" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="J42" s="59">
-        <v>1</v>
-      </c>
-      <c r="K42" s="59">
-        <v>0</v>
-      </c>
-      <c r="L42" s="59">
-        <v>1</v>
-      </c>
-      <c r="M42" s="59">
+      <c r="I42" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="J42" s="60">
+        <v>1</v>
+      </c>
+      <c r="K42" s="60">
+        <v>0</v>
+      </c>
+      <c r="L42" s="60">
+        <v>1</v>
+      </c>
+      <c r="M42" s="60">
         <v>1</v>
       </c>
       <c r="N42" s="4"/>
-      <c r="O42" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="P42" s="63"/>
-      <c r="Q42" s="66"/>
-    </row>
-    <row r="43" spans="1:17" s="1" customFormat="1">
+      <c r="O42" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="67"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:17">
       <c r="A43" s="28">
         <v>24013</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C43" s="19">
         <v>2401</v>
@@ -3437,34 +4038,34 @@
         <v>4</v>
       </c>
       <c r="H43" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="I43" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="J43" s="59">
-        <v>2</v>
-      </c>
-      <c r="K43" s="59">
-        <v>0</v>
-      </c>
-      <c r="L43" s="59">
-        <v>0</v>
-      </c>
-      <c r="M43" s="59">
+      <c r="I43" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="J43" s="60">
+        <v>2</v>
+      </c>
+      <c r="K43" s="60">
+        <v>0</v>
+      </c>
+      <c r="L43" s="60">
+        <v>0</v>
+      </c>
+      <c r="M43" s="60">
         <v>4</v>
       </c>
       <c r="N43" s="4"/>
-      <c r="O43" s="61"/>
-      <c r="P43" s="63"/>
-      <c r="Q43" s="66"/>
-    </row>
-    <row r="44" spans="1:17" s="1" customFormat="1">
+      <c r="O43" s="62"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="67"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:17">
       <c r="A44" s="28">
         <v>24014</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C44" s="19">
         <v>2401</v>
@@ -3482,36 +4083,36 @@
         <v>4</v>
       </c>
       <c r="H44" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="I44" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="J44" s="59">
-        <v>2</v>
-      </c>
-      <c r="K44" s="59">
-        <v>0</v>
-      </c>
-      <c r="L44" s="59">
-        <v>1</v>
-      </c>
-      <c r="M44" s="59">
+      <c r="I44" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="J44" s="60">
+        <v>2</v>
+      </c>
+      <c r="K44" s="60">
+        <v>0</v>
+      </c>
+      <c r="L44" s="60">
+        <v>1</v>
+      </c>
+      <c r="M44" s="60">
         <v>3</v>
       </c>
       <c r="N44" s="4"/>
-      <c r="O44" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="P44" s="63"/>
-      <c r="Q44" s="66"/>
-    </row>
-    <row r="45" spans="1:17" s="1" customFormat="1">
+      <c r="O44" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="67"/>
+    </row>
+    <row r="45" s="1" customFormat="1" spans="1:17">
       <c r="A45" s="28">
         <v>24015</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" s="19">
         <v>2401</v>
@@ -3529,38 +4130,38 @@
         <v>4</v>
       </c>
       <c r="H45" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="I45" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="J45" s="55">
-        <v>4</v>
-      </c>
-      <c r="K45" s="55">
-        <v>0</v>
-      </c>
-      <c r="L45" s="55">
-        <v>3</v>
-      </c>
-      <c r="M45" s="55">
+      <c r="I45" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="J45" s="56">
+        <v>4</v>
+      </c>
+      <c r="K45" s="56">
+        <v>0</v>
+      </c>
+      <c r="L45" s="56">
+        <v>3</v>
+      </c>
+      <c r="M45" s="56">
         <v>3</v>
       </c>
       <c r="N45" s="4"/>
-      <c r="O45" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="P45" s="63"/>
-      <c r="Q45" s="66">
+      <c r="O45" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="67">
         <v>32005</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="1" customFormat="1">
+    <row r="46" s="1" customFormat="1" spans="1:17">
       <c r="A46" s="28">
         <v>24021</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C46" s="19">
         <v>2402</v>
@@ -3578,34 +4179,34 @@
         <v>4</v>
       </c>
       <c r="H46" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="I46" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J46" s="55">
-        <v>1</v>
-      </c>
-      <c r="K46" s="55">
-        <v>0</v>
-      </c>
-      <c r="L46" s="55">
-        <v>0</v>
-      </c>
-      <c r="M46" s="55">
+      <c r="I46" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="J46" s="56">
+        <v>1</v>
+      </c>
+      <c r="K46" s="56">
+        <v>0</v>
+      </c>
+      <c r="L46" s="56">
+        <v>0</v>
+      </c>
+      <c r="M46" s="56">
         <v>2</v>
       </c>
       <c r="N46" s="4"/>
-      <c r="O46" s="61"/>
-      <c r="P46" s="63"/>
-      <c r="Q46" s="66"/>
-    </row>
-    <row r="47" spans="1:17" s="1" customFormat="1">
+      <c r="O46" s="62"/>
+      <c r="P46" s="64"/>
+      <c r="Q46" s="67"/>
+    </row>
+    <row r="47" s="1" customFormat="1" spans="1:17">
       <c r="A47" s="28">
         <v>24022</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" s="19">
         <v>2402</v>
@@ -3623,36 +4224,36 @@
         <v>4</v>
       </c>
       <c r="H47" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="I47" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J47" s="59">
-        <v>1</v>
-      </c>
-      <c r="K47" s="59">
-        <v>0</v>
-      </c>
-      <c r="L47" s="59">
-        <v>1</v>
-      </c>
-      <c r="M47" s="59">
+      <c r="I47" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="J47" s="60">
+        <v>1</v>
+      </c>
+      <c r="K47" s="60">
+        <v>0</v>
+      </c>
+      <c r="L47" s="60">
+        <v>1</v>
+      </c>
+      <c r="M47" s="60">
         <v>1</v>
       </c>
       <c r="N47" s="4"/>
-      <c r="O47" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="P47" s="63"/>
-      <c r="Q47" s="66"/>
-    </row>
-    <row r="48" spans="1:17" s="1" customFormat="1">
+      <c r="O47" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="67"/>
+    </row>
+    <row r="48" s="1" customFormat="1" spans="1:17">
       <c r="A48" s="28">
         <v>24023</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C48" s="19">
         <v>2402</v>
@@ -3670,34 +4271,34 @@
         <v>4</v>
       </c>
       <c r="H48" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="I48" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J48" s="59">
-        <v>2</v>
-      </c>
-      <c r="K48" s="59">
-        <v>0</v>
-      </c>
-      <c r="L48" s="59">
-        <v>0</v>
-      </c>
-      <c r="M48" s="59">
+      <c r="I48" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="J48" s="60">
+        <v>2</v>
+      </c>
+      <c r="K48" s="60">
+        <v>0</v>
+      </c>
+      <c r="L48" s="60">
+        <v>0</v>
+      </c>
+      <c r="M48" s="60">
         <v>4</v>
       </c>
       <c r="N48" s="4"/>
-      <c r="O48" s="61"/>
-      <c r="P48" s="63"/>
-      <c r="Q48" s="66"/>
-    </row>
-    <row r="49" spans="1:102" s="1" customFormat="1">
+      <c r="O48" s="62"/>
+      <c r="P48" s="64"/>
+      <c r="Q48" s="67"/>
+    </row>
+    <row r="49" s="1" customFormat="1" spans="1:17">
       <c r="A49" s="28">
         <v>24024</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="19">
         <v>2402</v>
@@ -3715,36 +4316,36 @@
         <v>4</v>
       </c>
       <c r="H49" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="I49" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J49" s="59">
-        <v>2</v>
-      </c>
-      <c r="K49" s="59">
-        <v>0</v>
-      </c>
-      <c r="L49" s="59">
-        <v>1</v>
-      </c>
-      <c r="M49" s="59">
+      <c r="I49" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="J49" s="60">
+        <v>2</v>
+      </c>
+      <c r="K49" s="60">
+        <v>0</v>
+      </c>
+      <c r="L49" s="60">
+        <v>1</v>
+      </c>
+      <c r="M49" s="60">
         <v>3</v>
       </c>
       <c r="N49" s="4"/>
-      <c r="O49" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="66"/>
-    </row>
-    <row r="50" spans="1:102" s="1" customFormat="1">
+      <c r="O49" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="67"/>
+    </row>
+    <row r="50" s="1" customFormat="1" spans="1:17">
       <c r="A50" s="28">
         <v>24025</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C50" s="19">
         <v>2402</v>
@@ -3762,29 +4363,29 @@
         <v>4</v>
       </c>
       <c r="H50" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="I50" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="J50" s="55">
-        <v>4</v>
-      </c>
-      <c r="K50" s="55">
-        <v>0</v>
-      </c>
-      <c r="L50" s="55">
-        <v>3</v>
-      </c>
-      <c r="M50" s="55">
+      <c r="I50" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="J50" s="56">
+        <v>4</v>
+      </c>
+      <c r="K50" s="56">
+        <v>0</v>
+      </c>
+      <c r="L50" s="56">
+        <v>3</v>
+      </c>
+      <c r="M50" s="56">
         <v>3</v>
       </c>
       <c r="N50" s="4"/>
-      <c r="O50" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="P50" s="63"/>
-      <c r="Q50" s="66">
+      <c r="O50" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="P50" s="64"/>
+      <c r="Q50" s="67">
         <v>36005</v>
       </c>
     </row>
@@ -3793,7 +4394,7 @@
         <v>25021</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C51" s="23">
         <v>2502</v>
@@ -3811,35 +4412,35 @@
         <v>5</v>
       </c>
       <c r="H51" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I51" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="J51" s="55">
+      <c r="I51" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="J51" s="56">
         <v>-1</v>
       </c>
-      <c r="K51" s="55">
-        <v>0</v>
-      </c>
-      <c r="L51" s="55">
-        <v>0</v>
-      </c>
-      <c r="M51" s="55">
-        <v>1</v>
-      </c>
-      <c r="N51" s="59"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="59"/>
+      <c r="K51" s="56">
+        <v>0</v>
+      </c>
+      <c r="L51" s="56">
+        <v>0</v>
+      </c>
+      <c r="M51" s="56">
+        <v>1</v>
+      </c>
+      <c r="N51" s="60"/>
+      <c r="O51" s="62"/>
+      <c r="P51" s="60"/>
       <c r="Q51" s="7"/>
-      <c r="CX51" s="70"/>
+      <c r="CX51" s="71"/>
     </row>
     <row r="52" spans="1:102">
       <c r="A52" s="23">
         <v>25022</v>
       </c>
       <c r="B52" s="38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C52" s="23">
         <v>2502</v>
@@ -3857,35 +4458,35 @@
         <v>5</v>
       </c>
       <c r="H52" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I52" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="J52" s="55">
+      <c r="I52" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="J52" s="56">
         <v>-1</v>
       </c>
-      <c r="K52" s="55">
-        <v>0</v>
-      </c>
-      <c r="L52" s="55">
-        <v>0</v>
-      </c>
-      <c r="M52" s="55">
-        <v>1</v>
-      </c>
-      <c r="N52" s="59"/>
-      <c r="O52" s="61"/>
-      <c r="P52" s="59"/>
+      <c r="K52" s="56">
+        <v>0</v>
+      </c>
+      <c r="L52" s="56">
+        <v>0</v>
+      </c>
+      <c r="M52" s="56">
+        <v>1</v>
+      </c>
+      <c r="N52" s="60"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="60"/>
       <c r="Q52" s="7"/>
-      <c r="CX52" s="70"/>
+      <c r="CX52" s="71"/>
     </row>
     <row r="53" spans="1:102">
       <c r="A53" s="23">
         <v>25023</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C53" s="23">
         <v>2502</v>
@@ -3903,35 +4504,35 @@
         <v>5</v>
       </c>
       <c r="H53" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="I53" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="J53" s="55">
+      <c r="I53" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="J53" s="56">
         <v>-1</v>
       </c>
-      <c r="K53" s="55">
-        <v>0</v>
-      </c>
-      <c r="L53" s="55">
-        <v>0</v>
-      </c>
-      <c r="M53" s="55">
-        <v>1</v>
-      </c>
-      <c r="N53" s="59"/>
-      <c r="O53" s="61"/>
-      <c r="P53" s="59"/>
+      <c r="K53" s="56">
+        <v>0</v>
+      </c>
+      <c r="L53" s="56">
+        <v>0</v>
+      </c>
+      <c r="M53" s="56">
+        <v>1</v>
+      </c>
+      <c r="N53" s="60"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="60"/>
       <c r="Q53" s="7"/>
-      <c r="CX53" s="70"/>
-    </row>
-    <row r="54" spans="1:102">
+      <c r="CX53" s="71"/>
+    </row>
+    <row r="54" spans="1:17">
       <c r="A54" s="19">
         <v>31031</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C54" s="19">
         <v>3103</v>
@@ -3949,34 +4550,34 @@
         <v>1</v>
       </c>
       <c r="H54" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="I54" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="J54" s="55">
-        <v>2</v>
-      </c>
-      <c r="K54" s="55">
-        <v>1</v>
-      </c>
-      <c r="L54" s="55">
-        <v>0</v>
-      </c>
-      <c r="M54" s="55">
-        <v>2</v>
-      </c>
-      <c r="N54" s="59"/>
-      <c r="O54" s="61"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="69"/>
-    </row>
-    <row r="55" spans="1:102">
+      <c r="I54" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="J54" s="56">
+        <v>2</v>
+      </c>
+      <c r="K54" s="56">
+        <v>1</v>
+      </c>
+      <c r="L54" s="56">
+        <v>0</v>
+      </c>
+      <c r="M54" s="56">
+        <v>2</v>
+      </c>
+      <c r="N54" s="60"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="70"/>
+    </row>
+    <row r="55" spans="1:17">
       <c r="A55" s="19">
         <v>31032</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C55" s="19">
         <v>3103</v>
@@ -3994,34 +4595,34 @@
         <v>1</v>
       </c>
       <c r="H55" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="I55" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="J55" s="59">
-        <v>2</v>
-      </c>
-      <c r="K55" s="59">
-        <v>2</v>
-      </c>
-      <c r="L55" s="59">
-        <v>0</v>
-      </c>
-      <c r="M55" s="59">
-        <v>1</v>
-      </c>
-      <c r="N55" s="59"/>
-      <c r="O55" s="61"/>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="69"/>
-    </row>
-    <row r="56" spans="1:102">
+      <c r="I55" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="J55" s="60">
+        <v>2</v>
+      </c>
+      <c r="K55" s="60">
+        <v>2</v>
+      </c>
+      <c r="L55" s="60">
+        <v>0</v>
+      </c>
+      <c r="M55" s="60">
+        <v>1</v>
+      </c>
+      <c r="N55" s="60"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="70"/>
+    </row>
+    <row r="56" spans="1:17">
       <c r="A56" s="19">
         <v>31033</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C56" s="19">
         <v>3103</v>
@@ -4039,34 +4640,34 @@
         <v>1</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="I56" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="J56" s="59">
-        <v>3</v>
-      </c>
-      <c r="K56" s="59">
-        <v>2</v>
-      </c>
-      <c r="L56" s="59">
-        <v>0</v>
-      </c>
-      <c r="M56" s="59">
-        <v>2</v>
-      </c>
-      <c r="N56" s="59"/>
-      <c r="O56" s="61"/>
-      <c r="P56" s="59"/>
-      <c r="Q56" s="69"/>
-    </row>
-    <row r="57" spans="1:102">
+      <c r="I56" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="J56" s="60">
+        <v>3</v>
+      </c>
+      <c r="K56" s="60">
+        <v>2</v>
+      </c>
+      <c r="L56" s="60">
+        <v>0</v>
+      </c>
+      <c r="M56" s="60">
+        <v>2</v>
+      </c>
+      <c r="N56" s="60"/>
+      <c r="O56" s="62"/>
+      <c r="P56" s="60"/>
+      <c r="Q56" s="70"/>
+    </row>
+    <row r="57" spans="1:17">
       <c r="A57" s="19">
         <v>31034</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C57" s="19">
         <v>3103</v>
@@ -4084,34 +4685,34 @@
         <v>1</v>
       </c>
       <c r="H57" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="I57" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="J57" s="59">
-        <v>3</v>
-      </c>
-      <c r="K57" s="59">
-        <v>2</v>
-      </c>
-      <c r="L57" s="59">
-        <v>0</v>
-      </c>
-      <c r="M57" s="59">
-        <v>3</v>
-      </c>
-      <c r="N57" s="59"/>
-      <c r="O57" s="61"/>
-      <c r="P57" s="59"/>
-      <c r="Q57" s="69"/>
-    </row>
-    <row r="58" spans="1:102" ht="13.5" customHeight="1">
+      <c r="I57" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="J57" s="60">
+        <v>3</v>
+      </c>
+      <c r="K57" s="60">
+        <v>2</v>
+      </c>
+      <c r="L57" s="60">
+        <v>0</v>
+      </c>
+      <c r="M57" s="60">
+        <v>3</v>
+      </c>
+      <c r="N57" s="60"/>
+      <c r="O57" s="62"/>
+      <c r="P57" s="60"/>
+      <c r="Q57" s="70"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:17">
       <c r="A58" s="19">
         <v>31035</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C58" s="19">
         <v>3103</v>
@@ -4129,34 +4730,34 @@
         <v>1</v>
       </c>
       <c r="H58" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="I58" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="J58" s="59">
-        <v>3</v>
-      </c>
-      <c r="K58" s="59">
-        <v>3</v>
-      </c>
-      <c r="L58" s="59">
-        <v>0</v>
-      </c>
-      <c r="M58" s="59">
+      <c r="I58" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="J58" s="60">
+        <v>3</v>
+      </c>
+      <c r="K58" s="60">
+        <v>3</v>
+      </c>
+      <c r="L58" s="60">
+        <v>0</v>
+      </c>
+      <c r="M58" s="60">
         <v>1</v>
       </c>
       <c r="N58" s="4"/>
-      <c r="O58" s="60"/>
-      <c r="P58" s="66"/>
-      <c r="Q58" s="69"/>
-    </row>
-    <row r="59" spans="1:102" ht="13.5" customHeight="1">
+      <c r="O58" s="61"/>
+      <c r="P58" s="67"/>
+      <c r="Q58" s="70"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:17">
       <c r="A59" s="19">
         <v>31036</v>
       </c>
       <c r="B59" s="35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C59" s="19">
         <v>3103</v>
@@ -4174,38 +4775,38 @@
         <v>1</v>
       </c>
       <c r="H59" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="I59" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="J59" s="55">
-        <v>4</v>
-      </c>
-      <c r="K59" s="55">
-        <v>0</v>
-      </c>
-      <c r="L59" s="55">
-        <v>0</v>
-      </c>
-      <c r="M59" s="55">
-        <v>0</v>
-      </c>
-      <c r="N59" s="59"/>
-      <c r="O59" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="P59" s="59"/>
-      <c r="Q59" s="69">
+      <c r="I59" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="J59" s="56">
+        <v>4</v>
+      </c>
+      <c r="K59" s="56">
+        <v>0</v>
+      </c>
+      <c r="L59" s="56">
+        <v>0</v>
+      </c>
+      <c r="M59" s="56">
+        <v>0</v>
+      </c>
+      <c r="N59" s="60"/>
+      <c r="O59" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="P59" s="60"/>
+      <c r="Q59" s="70">
         <v>24006</v>
       </c>
     </row>
-    <row r="60" spans="1:102">
+    <row r="60" spans="1:17">
       <c r="A60" s="23">
         <v>31021</v>
       </c>
       <c r="B60" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C60" s="23">
         <v>3102</v>
@@ -4223,34 +4824,34 @@
         <v>1</v>
       </c>
       <c r="H60" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="I60" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="J60" s="55">
-        <v>2</v>
-      </c>
-      <c r="K60" s="55">
-        <v>1</v>
-      </c>
-      <c r="L60" s="55">
-        <v>0</v>
-      </c>
-      <c r="M60" s="55">
-        <v>2</v>
-      </c>
-      <c r="N60" s="59"/>
-      <c r="O60" s="61"/>
-      <c r="P60" s="59"/>
+      <c r="I60" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="J60" s="56">
+        <v>2</v>
+      </c>
+      <c r="K60" s="56">
+        <v>1</v>
+      </c>
+      <c r="L60" s="56">
+        <v>0</v>
+      </c>
+      <c r="M60" s="56">
+        <v>2</v>
+      </c>
+      <c r="N60" s="60"/>
+      <c r="O60" s="62"/>
+      <c r="P60" s="60"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="1:102">
+    <row r="61" spans="1:17">
       <c r="A61" s="23">
         <v>31022</v>
       </c>
       <c r="B61" s="36" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C61" s="23">
         <v>3102</v>
@@ -4268,34 +4869,34 @@
         <v>1</v>
       </c>
       <c r="H61" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="I61" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="J61" s="59">
-        <v>2</v>
-      </c>
-      <c r="K61" s="59">
-        <v>2</v>
-      </c>
-      <c r="L61" s="59">
-        <v>0</v>
-      </c>
-      <c r="M61" s="59">
-        <v>0</v>
-      </c>
-      <c r="N61" s="59"/>
-      <c r="O61" s="61"/>
-      <c r="P61" s="59"/>
+      <c r="I61" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="J61" s="60">
+        <v>2</v>
+      </c>
+      <c r="K61" s="60">
+        <v>2</v>
+      </c>
+      <c r="L61" s="60">
+        <v>0</v>
+      </c>
+      <c r="M61" s="60">
+        <v>0</v>
+      </c>
+      <c r="N61" s="60"/>
+      <c r="O61" s="62"/>
+      <c r="P61" s="60"/>
       <c r="Q61" s="7"/>
     </row>
-    <row r="62" spans="1:102" s="1" customFormat="1">
+    <row r="62" s="1" customFormat="1" spans="1:17">
       <c r="A62" s="23">
         <v>31023</v>
       </c>
       <c r="B62" s="36" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C62" s="28">
         <v>3102</v>
@@ -4313,34 +4914,34 @@
         <v>1</v>
       </c>
       <c r="H62" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="I62" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="J62" s="59">
-        <v>3</v>
-      </c>
-      <c r="K62" s="59">
-        <v>2</v>
-      </c>
-      <c r="L62" s="59">
-        <v>0</v>
-      </c>
-      <c r="M62" s="59">
-        <v>2</v>
-      </c>
-      <c r="N62" s="59"/>
-      <c r="O62" s="61"/>
-      <c r="P62" s="59"/>
-      <c r="Q62" s="69"/>
-    </row>
-    <row r="63" spans="1:102" s="1" customFormat="1">
+      <c r="I62" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="J62" s="60">
+        <v>3</v>
+      </c>
+      <c r="K62" s="60">
+        <v>2</v>
+      </c>
+      <c r="L62" s="60">
+        <v>0</v>
+      </c>
+      <c r="M62" s="60">
+        <v>2</v>
+      </c>
+      <c r="N62" s="60"/>
+      <c r="O62" s="62"/>
+      <c r="P62" s="60"/>
+      <c r="Q62" s="70"/>
+    </row>
+    <row r="63" s="1" customFormat="1" spans="1:17">
       <c r="A63" s="23">
         <v>31024</v>
       </c>
       <c r="B63" s="36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C63" s="28">
         <v>3102</v>
@@ -4358,34 +4959,34 @@
         <v>1</v>
       </c>
       <c r="H63" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="I63" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="J63" s="59">
-        <v>3</v>
-      </c>
-      <c r="K63" s="59">
-        <v>3</v>
-      </c>
-      <c r="L63" s="59">
-        <v>0</v>
-      </c>
-      <c r="M63" s="59">
-        <v>0</v>
-      </c>
-      <c r="N63" s="59"/>
-      <c r="O63" s="61"/>
-      <c r="P63" s="59"/>
-      <c r="Q63" s="69"/>
-    </row>
-    <row r="64" spans="1:102" s="1" customFormat="1">
+      <c r="I63" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="J63" s="60">
+        <v>3</v>
+      </c>
+      <c r="K63" s="60">
+        <v>3</v>
+      </c>
+      <c r="L63" s="60">
+        <v>0</v>
+      </c>
+      <c r="M63" s="60">
+        <v>0</v>
+      </c>
+      <c r="N63" s="60"/>
+      <c r="O63" s="62"/>
+      <c r="P63" s="60"/>
+      <c r="Q63" s="70"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:17">
       <c r="A64" s="23">
         <v>31025</v>
       </c>
       <c r="B64" s="41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C64" s="28">
         <v>3102</v>
@@ -4403,40 +5004,40 @@
         <v>1</v>
       </c>
       <c r="H64" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="I64" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="J64" s="59">
-        <v>4</v>
-      </c>
-      <c r="K64" s="59">
-        <v>0</v>
-      </c>
-      <c r="L64" s="59">
-        <v>0</v>
-      </c>
-      <c r="M64" s="59">
-        <v>0</v>
-      </c>
-      <c r="N64" s="59"/>
-      <c r="O64" s="60" t="s">
-        <v>125</v>
-      </c>
-      <c r="P64" s="59" t="s">
+      <c r="I64" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="J64" s="60">
+        <v>4</v>
+      </c>
+      <c r="K64" s="60">
+        <v>0</v>
+      </c>
+      <c r="L64" s="60">
+        <v>0</v>
+      </c>
+      <c r="M64" s="60">
+        <v>0</v>
+      </c>
+      <c r="N64" s="60"/>
+      <c r="O64" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="Q64" s="69">
+      <c r="P64" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q64" s="70">
         <v>25006</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="1" customFormat="1">
+    <row r="65" s="1" customFormat="1" spans="1:17">
       <c r="A65" s="23">
         <v>31026</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C65" s="28">
         <v>3102</v>
@@ -4454,38 +5055,38 @@
         <v>1</v>
       </c>
       <c r="H65" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="I65" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="J65" s="59">
-        <v>2</v>
-      </c>
-      <c r="K65" s="59">
-        <v>2</v>
-      </c>
-      <c r="L65" s="59">
-        <v>0</v>
-      </c>
-      <c r="M65" s="59">
-        <v>0</v>
-      </c>
-      <c r="N65" s="59"/>
-      <c r="O65" s="78" t="s">
-        <v>128</v>
-      </c>
-      <c r="P65" s="59"/>
-      <c r="Q65" s="69">
+      <c r="I65" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="J65" s="60">
+        <v>2</v>
+      </c>
+      <c r="K65" s="60">
+        <v>2</v>
+      </c>
+      <c r="L65" s="60">
+        <v>0</v>
+      </c>
+      <c r="M65" s="60">
+        <v>0</v>
+      </c>
+      <c r="N65" s="60"/>
+      <c r="O65" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="P65" s="60"/>
+      <c r="Q65" s="70">
         <v>25007</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="1" customFormat="1">
+    <row r="66" s="1" customFormat="1" spans="1:17">
       <c r="A66" s="23">
         <v>31027</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C66" s="28">
         <v>3102</v>
@@ -4503,38 +5104,38 @@
         <v>1</v>
       </c>
       <c r="H66" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="I66" s="65" t="s">
         <v>120</v>
       </c>
-      <c r="J66" s="55">
-        <v>2</v>
-      </c>
-      <c r="K66" s="55">
-        <v>0</v>
-      </c>
-      <c r="L66" s="55">
-        <v>0</v>
-      </c>
-      <c r="M66" s="55">
+      <c r="I66" s="66" t="s">
+        <v>121</v>
+      </c>
+      <c r="J66" s="56">
+        <v>2</v>
+      </c>
+      <c r="K66" s="56">
+        <v>0</v>
+      </c>
+      <c r="L66" s="56">
+        <v>0</v>
+      </c>
+      <c r="M66" s="56">
         <v>0</v>
       </c>
       <c r="N66" s="4"/>
-      <c r="O66" s="79" t="s">
-        <v>130</v>
-      </c>
-      <c r="P66" s="66"/>
-      <c r="Q66" s="69">
+      <c r="O66" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="P66" s="67"/>
+      <c r="Q66" s="70">
         <v>25008</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="1" customFormat="1">
+    <row r="67" s="1" customFormat="1" spans="1:17">
       <c r="A67" s="19">
         <v>33011</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C67" s="19">
         <v>3301</v>
@@ -4551,35 +5152,35 @@
       <c r="G67" s="19">
         <v>3</v>
       </c>
-      <c r="H67" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="I67" s="54" t="s">
+      <c r="H67" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="J67" s="55">
-        <v>1</v>
-      </c>
-      <c r="K67" s="55">
-        <v>0</v>
-      </c>
-      <c r="L67" s="55">
-        <v>0</v>
-      </c>
-      <c r="M67" s="55">
-        <v>2</v>
-      </c>
-      <c r="N67" s="59"/>
-      <c r="O67" s="61"/>
-      <c r="P67" s="66"/>
-      <c r="Q67" s="69"/>
-    </row>
-    <row r="68" spans="1:17" s="1" customFormat="1">
+      <c r="I67" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="J67" s="56">
+        <v>1</v>
+      </c>
+      <c r="K67" s="56">
+        <v>0</v>
+      </c>
+      <c r="L67" s="56">
+        <v>0</v>
+      </c>
+      <c r="M67" s="56">
+        <v>2</v>
+      </c>
+      <c r="N67" s="60"/>
+      <c r="O67" s="62"/>
+      <c r="P67" s="67"/>
+      <c r="Q67" s="70"/>
+    </row>
+    <row r="68" s="1" customFormat="1" spans="1:17">
       <c r="A68" s="19">
         <v>33012</v>
       </c>
       <c r="B68" s="32" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C68" s="19">
         <v>3301</v>
@@ -4596,35 +5197,35 @@
       <c r="G68" s="19">
         <v>3</v>
       </c>
-      <c r="H68" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="I68" s="54" t="s">
+      <c r="H68" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="J68" s="55">
-        <v>1</v>
-      </c>
-      <c r="K68" s="55">
-        <v>1</v>
-      </c>
-      <c r="L68" s="55">
-        <v>0</v>
-      </c>
-      <c r="M68" s="55">
-        <v>0</v>
-      </c>
-      <c r="N68" s="59"/>
-      <c r="O68" s="61"/>
-      <c r="P68" s="66"/>
-      <c r="Q68" s="69"/>
-    </row>
-    <row r="69" spans="1:17" s="1" customFormat="1">
+      <c r="I68" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="J68" s="56">
+        <v>1</v>
+      </c>
+      <c r="K68" s="56">
+        <v>1</v>
+      </c>
+      <c r="L68" s="56">
+        <v>0</v>
+      </c>
+      <c r="M68" s="56">
+        <v>0</v>
+      </c>
+      <c r="N68" s="60"/>
+      <c r="O68" s="62"/>
+      <c r="P68" s="67"/>
+      <c r="Q68" s="70"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:17">
       <c r="A69" s="19">
         <v>33013</v>
       </c>
       <c r="B69" s="32" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C69" s="19">
         <v>3301</v>
@@ -4641,35 +5242,35 @@
       <c r="G69" s="19">
         <v>3</v>
       </c>
-      <c r="H69" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="I69" s="54" t="s">
+      <c r="H69" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="J69" s="55">
-        <v>2</v>
-      </c>
-      <c r="K69" s="55">
-        <v>1</v>
-      </c>
-      <c r="L69" s="55">
-        <v>0</v>
-      </c>
-      <c r="M69" s="55">
-        <v>2</v>
-      </c>
-      <c r="N69" s="59"/>
-      <c r="O69" s="61"/>
-      <c r="P69" s="66"/>
-      <c r="Q69" s="69"/>
-    </row>
-    <row r="70" spans="1:17" s="1" customFormat="1">
+      <c r="I69" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="J69" s="56">
+        <v>2</v>
+      </c>
+      <c r="K69" s="56">
+        <v>1</v>
+      </c>
+      <c r="L69" s="56">
+        <v>0</v>
+      </c>
+      <c r="M69" s="56">
+        <v>2</v>
+      </c>
+      <c r="N69" s="60"/>
+      <c r="O69" s="62"/>
+      <c r="P69" s="67"/>
+      <c r="Q69" s="70"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:17">
       <c r="A70" s="19">
         <v>33014</v>
       </c>
       <c r="B70" s="32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C70" s="19">
         <v>3301</v>
@@ -4686,35 +5287,35 @@
       <c r="G70" s="19">
         <v>3</v>
       </c>
-      <c r="H70" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="I70" s="54" t="s">
+      <c r="H70" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="J70" s="55">
-        <v>2</v>
-      </c>
-      <c r="K70" s="55">
-        <v>2</v>
-      </c>
-      <c r="L70" s="55">
-        <v>0</v>
-      </c>
-      <c r="M70" s="55">
-        <v>1</v>
-      </c>
-      <c r="N70" s="59"/>
-      <c r="O70" s="61"/>
-      <c r="P70" s="66"/>
-      <c r="Q70" s="69"/>
-    </row>
-    <row r="71" spans="1:17" s="1" customFormat="1">
+      <c r="I70" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="J70" s="56">
+        <v>2</v>
+      </c>
+      <c r="K70" s="56">
+        <v>2</v>
+      </c>
+      <c r="L70" s="56">
+        <v>0</v>
+      </c>
+      <c r="M70" s="56">
+        <v>1</v>
+      </c>
+      <c r="N70" s="60"/>
+      <c r="O70" s="62"/>
+      <c r="P70" s="67"/>
+      <c r="Q70" s="70"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:17">
       <c r="A71" s="19">
         <v>33015</v>
       </c>
-      <c r="B71" s="72" t="s">
-        <v>137</v>
+      <c r="B71" s="73" t="s">
+        <v>138</v>
       </c>
       <c r="C71" s="19">
         <v>3301</v>
@@ -4731,35 +5332,35 @@
       <c r="G71" s="19">
         <v>3</v>
       </c>
-      <c r="H71" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="I71" s="54" t="s">
+      <c r="H71" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="J71" s="55">
-        <v>3</v>
-      </c>
-      <c r="K71" s="55">
-        <v>3</v>
-      </c>
-      <c r="L71" s="55">
-        <v>0</v>
-      </c>
-      <c r="M71" s="55">
-        <v>1</v>
-      </c>
-      <c r="N71" s="59"/>
-      <c r="O71" s="61"/>
-      <c r="P71" s="66"/>
-      <c r="Q71" s="69"/>
-    </row>
-    <row r="72" spans="1:17" s="1" customFormat="1">
+      <c r="I71" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="J71" s="56">
+        <v>3</v>
+      </c>
+      <c r="K71" s="56">
+        <v>3</v>
+      </c>
+      <c r="L71" s="56">
+        <v>0</v>
+      </c>
+      <c r="M71" s="56">
+        <v>1</v>
+      </c>
+      <c r="N71" s="60"/>
+      <c r="O71" s="62"/>
+      <c r="P71" s="67"/>
+      <c r="Q71" s="70"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:17">
       <c r="A72" s="19">
         <v>33016</v>
       </c>
       <c r="B72" s="35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C72" s="19">
         <v>3301</v>
@@ -4776,39 +5377,39 @@
       <c r="G72" s="19">
         <v>3</v>
       </c>
-      <c r="H72" s="71" t="s">
-        <v>132</v>
-      </c>
-      <c r="I72" s="54" t="s">
+      <c r="H72" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="J72" s="55">
-        <v>2</v>
-      </c>
-      <c r="K72" s="55">
-        <v>0</v>
-      </c>
-      <c r="L72" s="55">
-        <v>0</v>
-      </c>
-      <c r="M72" s="55">
-        <v>0</v>
-      </c>
-      <c r="N72" s="59"/>
-      <c r="O72" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="P72" s="66"/>
-      <c r="Q72" s="69">
+      <c r="I72" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="J72" s="56">
+        <v>2</v>
+      </c>
+      <c r="K72" s="56">
+        <v>0</v>
+      </c>
+      <c r="L72" s="56">
+        <v>0</v>
+      </c>
+      <c r="M72" s="56">
+        <v>0</v>
+      </c>
+      <c r="N72" s="60"/>
+      <c r="O72" s="62" t="s">
+        <v>140</v>
+      </c>
+      <c r="P72" s="67"/>
+      <c r="Q72" s="70">
         <v>15006</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="1" customFormat="1">
+    <row r="73" s="1" customFormat="1" spans="1:17">
       <c r="A73" s="19">
         <v>33021</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C73" s="19">
         <v>3302</v>
@@ -4825,35 +5426,35 @@
       <c r="G73" s="19">
         <v>3</v>
       </c>
-      <c r="H73" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="I73" s="65" t="s">
+      <c r="H73" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="J73" s="55">
-        <v>1</v>
-      </c>
-      <c r="K73" s="55">
-        <v>1</v>
-      </c>
-      <c r="L73" s="55">
-        <v>0</v>
-      </c>
-      <c r="M73" s="55">
-        <v>1</v>
-      </c>
-      <c r="N73" s="59"/>
-      <c r="O73" s="61"/>
-      <c r="P73" s="66"/>
-      <c r="Q73" s="69"/>
-    </row>
-    <row r="74" spans="1:17" s="1" customFormat="1">
+      <c r="I73" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="J73" s="56">
+        <v>1</v>
+      </c>
+      <c r="K73" s="56">
+        <v>1</v>
+      </c>
+      <c r="L73" s="56">
+        <v>0</v>
+      </c>
+      <c r="M73" s="56">
+        <v>1</v>
+      </c>
+      <c r="N73" s="60"/>
+      <c r="O73" s="62"/>
+      <c r="P73" s="67"/>
+      <c r="Q73" s="70"/>
+    </row>
+    <row r="74" s="1" customFormat="1" spans="1:17">
       <c r="A74" s="19">
         <v>33022</v>
       </c>
       <c r="B74" s="33" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C74" s="19">
         <v>3302</v>
@@ -4870,35 +5471,35 @@
       <c r="G74" s="19">
         <v>3</v>
       </c>
-      <c r="H74" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="I74" s="65" t="s">
+      <c r="H74" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="J74" s="59">
-        <v>1</v>
-      </c>
-      <c r="K74" s="59">
-        <v>1</v>
-      </c>
-      <c r="L74" s="59">
-        <v>0</v>
-      </c>
-      <c r="M74" s="59">
-        <v>0</v>
-      </c>
-      <c r="N74" s="59"/>
-      <c r="O74" s="61"/>
-      <c r="P74" s="66"/>
-      <c r="Q74" s="69"/>
-    </row>
-    <row r="75" spans="1:17" s="1" customFormat="1">
+      <c r="I74" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="J74" s="60">
+        <v>1</v>
+      </c>
+      <c r="K74" s="60">
+        <v>1</v>
+      </c>
+      <c r="L74" s="60">
+        <v>0</v>
+      </c>
+      <c r="M74" s="60">
+        <v>0</v>
+      </c>
+      <c r="N74" s="60"/>
+      <c r="O74" s="62"/>
+      <c r="P74" s="67"/>
+      <c r="Q74" s="70"/>
+    </row>
+    <row r="75" s="1" customFormat="1" spans="1:17">
       <c r="A75" s="19">
         <v>33023</v>
       </c>
       <c r="B75" s="33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C75" s="19">
         <v>3302</v>
@@ -4915,35 +5516,35 @@
       <c r="G75" s="19">
         <v>3</v>
       </c>
-      <c r="H75" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="I75" s="65" t="s">
+      <c r="H75" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="J75" s="59">
-        <v>1</v>
-      </c>
-      <c r="K75" s="59">
-        <v>0</v>
-      </c>
-      <c r="L75" s="59">
-        <v>0</v>
-      </c>
-      <c r="M75" s="59">
-        <v>2</v>
-      </c>
-      <c r="N75" s="59"/>
-      <c r="O75" s="61"/>
-      <c r="P75" s="66"/>
-      <c r="Q75" s="69"/>
-    </row>
-    <row r="76" spans="1:17" s="1" customFormat="1">
+      <c r="I75" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="J75" s="60">
+        <v>1</v>
+      </c>
+      <c r="K75" s="60">
+        <v>0</v>
+      </c>
+      <c r="L75" s="60">
+        <v>0</v>
+      </c>
+      <c r="M75" s="60">
+        <v>2</v>
+      </c>
+      <c r="N75" s="60"/>
+      <c r="O75" s="62"/>
+      <c r="P75" s="67"/>
+      <c r="Q75" s="70"/>
+    </row>
+    <row r="76" s="1" customFormat="1" spans="1:17">
       <c r="A76" s="19">
         <v>33024</v>
       </c>
       <c r="B76" s="33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C76" s="19">
         <v>3302</v>
@@ -4960,35 +5561,35 @@
       <c r="G76" s="19">
         <v>3</v>
       </c>
-      <c r="H76" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="I76" s="65" t="s">
+      <c r="H76" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="J76" s="59">
-        <v>2</v>
-      </c>
-      <c r="K76" s="59">
-        <v>2</v>
-      </c>
-      <c r="L76" s="59">
-        <v>0</v>
-      </c>
-      <c r="M76" s="59">
-        <v>1</v>
-      </c>
-      <c r="N76" s="59"/>
-      <c r="O76" s="61"/>
-      <c r="P76" s="66"/>
-      <c r="Q76" s="69"/>
-    </row>
-    <row r="77" spans="1:17" s="1" customFormat="1">
+      <c r="I76" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="J76" s="60">
+        <v>2</v>
+      </c>
+      <c r="K76" s="60">
+        <v>2</v>
+      </c>
+      <c r="L76" s="60">
+        <v>0</v>
+      </c>
+      <c r="M76" s="60">
+        <v>1</v>
+      </c>
+      <c r="N76" s="60"/>
+      <c r="O76" s="62"/>
+      <c r="P76" s="67"/>
+      <c r="Q76" s="70"/>
+    </row>
+    <row r="77" s="1" customFormat="1" spans="1:17">
       <c r="A77" s="19">
         <v>33025</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C77" s="19">
         <v>3302</v>
@@ -5005,35 +5606,35 @@
       <c r="G77" s="19">
         <v>3</v>
       </c>
-      <c r="H77" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="I77" s="65" t="s">
+      <c r="H77" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="J77" s="59">
-        <v>2</v>
-      </c>
-      <c r="K77" s="59">
-        <v>1</v>
-      </c>
-      <c r="L77" s="59">
-        <v>0</v>
-      </c>
-      <c r="M77" s="59">
-        <v>2</v>
-      </c>
-      <c r="N77" s="59"/>
-      <c r="O77" s="61"/>
-      <c r="P77" s="66"/>
-      <c r="Q77" s="69"/>
-    </row>
-    <row r="78" spans="1:17" s="1" customFormat="1">
+      <c r="I77" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="J77" s="60">
+        <v>2</v>
+      </c>
+      <c r="K77" s="60">
+        <v>1</v>
+      </c>
+      <c r="L77" s="60">
+        <v>0</v>
+      </c>
+      <c r="M77" s="60">
+        <v>2</v>
+      </c>
+      <c r="N77" s="60"/>
+      <c r="O77" s="62"/>
+      <c r="P77" s="67"/>
+      <c r="Q77" s="70"/>
+    </row>
+    <row r="78" s="1" customFormat="1" spans="1:16">
       <c r="A78" s="19">
         <v>33026</v>
       </c>
-      <c r="B78" s="73" t="s">
-        <v>147</v>
+      <c r="B78" s="74" t="s">
+        <v>148</v>
       </c>
       <c r="C78" s="19">
         <v>3302</v>
@@ -5050,30 +5651,30 @@
       <c r="G78" s="19">
         <v>3</v>
       </c>
-      <c r="H78" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="I78" s="65" t="s">
+      <c r="H78" s="72" t="s">
         <v>142</v>
       </c>
-      <c r="J78" s="59">
-        <v>3</v>
-      </c>
-      <c r="K78" s="59">
-        <v>0</v>
-      </c>
-      <c r="L78" s="59">
-        <v>0</v>
-      </c>
-      <c r="M78" s="59">
-        <v>0</v>
-      </c>
-      <c r="N78" s="59"/>
-      <c r="O78" s="80" t="s">
-        <v>148</v>
-      </c>
-      <c r="P78" s="69" t="s">
+      <c r="I78" s="66" t="s">
+        <v>143</v>
+      </c>
+      <c r="J78" s="60">
+        <v>3</v>
+      </c>
+      <c r="K78" s="60">
+        <v>0</v>
+      </c>
+      <c r="L78" s="60">
+        <v>0</v>
+      </c>
+      <c r="M78" s="60">
+        <v>0</v>
+      </c>
+      <c r="N78" s="60"/>
+      <c r="O78" s="81" t="s">
         <v>149</v>
+      </c>
+      <c r="P78" s="70" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -5081,7 +5682,7 @@
         <v>34021</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C79" s="19">
         <v>3402</v>
@@ -5098,37 +5699,37 @@
       <c r="G79" s="19">
         <v>4</v>
       </c>
-      <c r="H79" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="I79" s="65" t="s">
+      <c r="H79" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="J79" s="55">
-        <v>1</v>
-      </c>
-      <c r="K79" s="55">
-        <v>0</v>
-      </c>
-      <c r="L79" s="55">
-        <v>1</v>
-      </c>
-      <c r="M79" s="55">
-        <v>1</v>
-      </c>
-      <c r="N79" s="78"/>
-      <c r="O79" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="P79" s="81"/>
-      <c r="Q79" s="69"/>
+      <c r="I79" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="J79" s="56">
+        <v>1</v>
+      </c>
+      <c r="K79" s="56">
+        <v>0</v>
+      </c>
+      <c r="L79" s="56">
+        <v>1</v>
+      </c>
+      <c r="M79" s="56">
+        <v>1</v>
+      </c>
+      <c r="N79" s="79"/>
+      <c r="O79" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="P79" s="82"/>
+      <c r="Q79" s="70"/>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="19">
         <v>34022</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C80" s="19">
         <v>3402</v>
@@ -5145,35 +5746,35 @@
       <c r="G80" s="19">
         <v>4</v>
       </c>
-      <c r="H80" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="I80" s="65" t="s">
+      <c r="H80" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="J80" s="59">
-        <v>2</v>
-      </c>
-      <c r="K80" s="59">
-        <v>0</v>
-      </c>
-      <c r="L80" s="59">
-        <v>0</v>
-      </c>
-      <c r="M80" s="59">
-        <v>4</v>
-      </c>
-      <c r="N80" s="82"/>
-      <c r="O80" s="61"/>
-      <c r="P80" s="81"/>
-      <c r="Q80" s="69"/>
+      <c r="I80" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="J80" s="60">
+        <v>2</v>
+      </c>
+      <c r="K80" s="60">
+        <v>0</v>
+      </c>
+      <c r="L80" s="60">
+        <v>0</v>
+      </c>
+      <c r="M80" s="60">
+        <v>4</v>
+      </c>
+      <c r="N80" s="83"/>
+      <c r="O80" s="62"/>
+      <c r="P80" s="82"/>
+      <c r="Q80" s="70"/>
     </row>
     <row r="81" spans="1:17">
       <c r="A81" s="19">
         <v>34023</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C81" s="19">
         <v>3402</v>
@@ -5190,37 +5791,37 @@
       <c r="G81" s="19">
         <v>4</v>
       </c>
-      <c r="H81" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="I81" s="65" t="s">
+      <c r="H81" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="J81" s="59">
-        <v>2</v>
-      </c>
-      <c r="K81" s="59">
-        <v>0</v>
-      </c>
-      <c r="L81" s="59">
-        <v>1</v>
-      </c>
-      <c r="M81" s="59">
-        <v>2</v>
-      </c>
-      <c r="N81" s="82"/>
-      <c r="O81" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="P81" s="81"/>
-      <c r="Q81" s="69"/>
+      <c r="I81" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="J81" s="60">
+        <v>2</v>
+      </c>
+      <c r="K81" s="60">
+        <v>0</v>
+      </c>
+      <c r="L81" s="60">
+        <v>1</v>
+      </c>
+      <c r="M81" s="60">
+        <v>2</v>
+      </c>
+      <c r="N81" s="83"/>
+      <c r="O81" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="P81" s="82"/>
+      <c r="Q81" s="70"/>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="19">
         <v>34024</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C82" s="19">
         <v>3402</v>
@@ -5237,37 +5838,37 @@
       <c r="G82" s="19">
         <v>4</v>
       </c>
-      <c r="H82" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="I82" s="65" t="s">
+      <c r="H82" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="J82" s="59">
-        <v>3</v>
-      </c>
-      <c r="K82" s="59">
-        <v>0</v>
-      </c>
-      <c r="L82" s="59">
-        <v>2</v>
-      </c>
-      <c r="M82" s="59">
-        <v>2</v>
-      </c>
-      <c r="N82" s="82"/>
-      <c r="O82" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="P82" s="81"/>
-      <c r="Q82" s="69"/>
+      <c r="I82" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="J82" s="60">
+        <v>3</v>
+      </c>
+      <c r="K82" s="60">
+        <v>0</v>
+      </c>
+      <c r="L82" s="60">
+        <v>2</v>
+      </c>
+      <c r="M82" s="60">
+        <v>2</v>
+      </c>
+      <c r="N82" s="83"/>
+      <c r="O82" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="P82" s="82"/>
+      <c r="Q82" s="70"/>
     </row>
     <row r="83" spans="1:17">
       <c r="A83" s="19">
         <v>34025</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C83" s="19">
         <v>3402</v>
@@ -5284,37 +5885,37 @@
       <c r="G83" s="19">
         <v>4</v>
       </c>
-      <c r="H83" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="I83" s="65" t="s">
+      <c r="H83" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="J83" s="59">
-        <v>3</v>
-      </c>
-      <c r="K83" s="59">
-        <v>0</v>
-      </c>
-      <c r="L83" s="59">
-        <v>1</v>
-      </c>
-      <c r="M83" s="59">
-        <v>4</v>
-      </c>
-      <c r="N83" s="82"/>
-      <c r="O83" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="P83" s="81"/>
-      <c r="Q83" s="69"/>
+      <c r="I83" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="J83" s="60">
+        <v>3</v>
+      </c>
+      <c r="K83" s="60">
+        <v>0</v>
+      </c>
+      <c r="L83" s="60">
+        <v>1</v>
+      </c>
+      <c r="M83" s="60">
+        <v>4</v>
+      </c>
+      <c r="N83" s="83"/>
+      <c r="O83" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="P83" s="82"/>
+      <c r="Q83" s="70"/>
     </row>
     <row r="84" spans="1:17">
       <c r="A84" s="19">
         <v>34026</v>
       </c>
       <c r="B84" s="35" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C84" s="19">
         <v>3402</v>
@@ -5331,39 +5932,39 @@
       <c r="G84" s="19">
         <v>4</v>
       </c>
-      <c r="H84" s="71" t="s">
-        <v>151</v>
-      </c>
-      <c r="I84" s="65" t="s">
+      <c r="H84" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="J84" s="55">
+      <c r="I84" s="66" t="s">
+        <v>153</v>
+      </c>
+      <c r="J84" s="56">
         <v>5</v>
       </c>
-      <c r="K84" s="55">
-        <v>0</v>
-      </c>
-      <c r="L84" s="55">
-        <v>4</v>
-      </c>
-      <c r="M84" s="55">
-        <v>4</v>
-      </c>
-      <c r="N84" s="82"/>
-      <c r="O84" s="61" t="s">
-        <v>159</v>
-      </c>
-      <c r="P84" s="69" t="s">
+      <c r="K84" s="56">
+        <v>0</v>
+      </c>
+      <c r="L84" s="56">
+        <v>4</v>
+      </c>
+      <c r="M84" s="56">
+        <v>4</v>
+      </c>
+      <c r="N84" s="83"/>
+      <c r="O84" s="62" t="s">
         <v>160</v>
       </c>
-      <c r="Q84" s="69"/>
+      <c r="P84" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q84" s="70"/>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="19">
         <v>34031</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C85" s="19">
         <v>3403</v>
@@ -5380,37 +5981,37 @@
       <c r="G85" s="19">
         <v>4</v>
       </c>
-      <c r="H85" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="I85" s="65" t="s">
+      <c r="H85" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="J85" s="55">
-        <v>1</v>
-      </c>
-      <c r="K85" s="55">
-        <v>0</v>
-      </c>
-      <c r="L85" s="55">
-        <v>1</v>
-      </c>
-      <c r="M85" s="55">
-        <v>0</v>
-      </c>
-      <c r="N85" s="82"/>
-      <c r="O85" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="P85" s="81"/>
-      <c r="Q85" s="69"/>
+      <c r="I85" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="J85" s="56">
+        <v>1</v>
+      </c>
+      <c r="K85" s="56">
+        <v>0</v>
+      </c>
+      <c r="L85" s="56">
+        <v>1</v>
+      </c>
+      <c r="M85" s="56">
+        <v>0</v>
+      </c>
+      <c r="N85" s="83"/>
+      <c r="O85" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="P85" s="82"/>
+      <c r="Q85" s="70"/>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="19">
         <v>34032</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C86" s="19">
         <v>3403</v>
@@ -5427,37 +6028,37 @@
       <c r="G86" s="19">
         <v>4</v>
       </c>
-      <c r="H86" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="I86" s="65" t="s">
+      <c r="H86" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="J86" s="59">
-        <v>2</v>
-      </c>
-      <c r="K86" s="59">
-        <v>0</v>
-      </c>
-      <c r="L86" s="59">
-        <v>2</v>
-      </c>
-      <c r="M86" s="59">
-        <v>1</v>
-      </c>
-      <c r="N86" s="82"/>
-      <c r="O86" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="P86" s="81"/>
-      <c r="Q86" s="69"/>
+      <c r="I86" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="J86" s="60">
+        <v>2</v>
+      </c>
+      <c r="K86" s="60">
+        <v>0</v>
+      </c>
+      <c r="L86" s="60">
+        <v>2</v>
+      </c>
+      <c r="M86" s="60">
+        <v>1</v>
+      </c>
+      <c r="N86" s="83"/>
+      <c r="O86" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="P86" s="82"/>
+      <c r="Q86" s="70"/>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="19">
         <v>34033</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C87" s="19">
         <v>3403</v>
@@ -5474,37 +6075,37 @@
       <c r="G87" s="19">
         <v>4</v>
       </c>
-      <c r="H87" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="I87" s="65" t="s">
+      <c r="H87" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="J87" s="59">
-        <v>2</v>
-      </c>
-      <c r="K87" s="59">
-        <v>0</v>
-      </c>
-      <c r="L87" s="59">
-        <v>2</v>
-      </c>
-      <c r="M87" s="59">
-        <v>0</v>
-      </c>
-      <c r="N87" s="82"/>
-      <c r="O87" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="P87" s="81"/>
-      <c r="Q87" s="69"/>
+      <c r="I87" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="J87" s="60">
+        <v>2</v>
+      </c>
+      <c r="K87" s="60">
+        <v>0</v>
+      </c>
+      <c r="L87" s="60">
+        <v>2</v>
+      </c>
+      <c r="M87" s="60">
+        <v>0</v>
+      </c>
+      <c r="N87" s="83"/>
+      <c r="O87" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="P87" s="82"/>
+      <c r="Q87" s="70"/>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="19">
         <v>34034</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C88" s="19">
         <v>3403</v>
@@ -5521,37 +6122,37 @@
       <c r="G88" s="19">
         <v>4</v>
       </c>
-      <c r="H88" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="I88" s="65" t="s">
+      <c r="H88" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="J88" s="59">
-        <v>3</v>
-      </c>
-      <c r="K88" s="59">
-        <v>0</v>
-      </c>
-      <c r="L88" s="59">
-        <v>2</v>
-      </c>
-      <c r="M88" s="59">
-        <v>2</v>
-      </c>
-      <c r="N88" s="82"/>
-      <c r="O88" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="P88" s="81"/>
-      <c r="Q88" s="69"/>
+      <c r="I88" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="J88" s="60">
+        <v>3</v>
+      </c>
+      <c r="K88" s="60">
+        <v>0</v>
+      </c>
+      <c r="L88" s="60">
+        <v>2</v>
+      </c>
+      <c r="M88" s="60">
+        <v>2</v>
+      </c>
+      <c r="N88" s="83"/>
+      <c r="O88" s="62" t="s">
+        <v>157</v>
+      </c>
+      <c r="P88" s="82"/>
+      <c r="Q88" s="70"/>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="19">
         <v>34035</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C89" s="19">
         <v>3403</v>
@@ -5568,37 +6169,37 @@
       <c r="G89" s="19">
         <v>4</v>
       </c>
-      <c r="H89" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="I89" s="65" t="s">
+      <c r="H89" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="J89" s="59">
-        <v>3</v>
-      </c>
-      <c r="K89" s="59">
-        <v>0</v>
-      </c>
-      <c r="L89" s="59">
-        <v>3</v>
-      </c>
-      <c r="M89" s="59">
-        <v>1</v>
-      </c>
-      <c r="N89" s="82"/>
-      <c r="O89" s="61" t="s">
-        <v>168</v>
-      </c>
-      <c r="P89" s="81"/>
-      <c r="Q89" s="69"/>
+      <c r="I89" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="J89" s="60">
+        <v>3</v>
+      </c>
+      <c r="K89" s="60">
+        <v>0</v>
+      </c>
+      <c r="L89" s="60">
+        <v>3</v>
+      </c>
+      <c r="M89" s="60">
+        <v>1</v>
+      </c>
+      <c r="N89" s="83"/>
+      <c r="O89" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="P89" s="82"/>
+      <c r="Q89" s="70"/>
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="19">
         <v>34036</v>
       </c>
       <c r="B90" s="35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C90" s="19">
         <v>3403</v>
@@ -5615,39 +6216,39 @@
       <c r="G90" s="19">
         <v>4</v>
       </c>
-      <c r="H90" s="71" t="s">
-        <v>162</v>
-      </c>
-      <c r="I90" s="65" t="s">
+      <c r="H90" s="72" t="s">
         <v>163</v>
       </c>
-      <c r="J90" s="55">
-        <v>2</v>
-      </c>
-      <c r="K90" s="55">
-        <v>0</v>
-      </c>
-      <c r="L90" s="55">
-        <v>0</v>
-      </c>
-      <c r="M90" s="55">
-        <v>1</v>
-      </c>
-      <c r="N90" s="82"/>
-      <c r="O90" s="61" t="s">
-        <v>170</v>
-      </c>
-      <c r="P90" s="83" t="s">
+      <c r="I90" s="66" t="s">
+        <v>164</v>
+      </c>
+      <c r="J90" s="56">
+        <v>2</v>
+      </c>
+      <c r="K90" s="56">
+        <v>0</v>
+      </c>
+      <c r="L90" s="56">
+        <v>0</v>
+      </c>
+      <c r="M90" s="56">
+        <v>1</v>
+      </c>
+      <c r="N90" s="83"/>
+      <c r="O90" s="62" t="s">
         <v>171</v>
       </c>
-      <c r="Q90" s="69"/>
-    </row>
-    <row r="91" spans="1:17">
+      <c r="P90" s="84" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q90" s="70"/>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" s="23">
         <v>35031</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C91" s="28">
         <v>3503</v>
@@ -5665,32 +6266,32 @@
         <v>5</v>
       </c>
       <c r="H91" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="I91" s="65" t="s">
         <v>174</v>
+      </c>
+      <c r="I91" s="66" t="s">
+        <v>175</v>
       </c>
       <c r="J91" s="47">
         <v>-1</v>
       </c>
-      <c r="K91" s="55">
-        <v>0</v>
-      </c>
-      <c r="L91" s="55">
-        <v>0</v>
-      </c>
-      <c r="M91" s="55">
-        <v>0</v>
-      </c>
-      <c r="N91" s="82"/>
-      <c r="O91" s="61"/>
-    </row>
-    <row r="92" spans="1:17">
+      <c r="K91" s="56">
+        <v>0</v>
+      </c>
+      <c r="L91" s="56">
+        <v>0</v>
+      </c>
+      <c r="M91" s="56">
+        <v>0</v>
+      </c>
+      <c r="N91" s="83"/>
+      <c r="O91" s="62"/>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" s="23">
         <v>35032</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C92" s="28">
         <v>3503</v>
@@ -5708,32 +6309,32 @@
         <v>5</v>
       </c>
       <c r="H92" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="I92" s="65" t="s">
         <v>174</v>
+      </c>
+      <c r="I92" s="66" t="s">
+        <v>175</v>
       </c>
       <c r="J92" s="4">
         <v>-1</v>
       </c>
-      <c r="K92" s="59">
-        <v>0</v>
-      </c>
-      <c r="L92" s="59">
-        <v>0</v>
-      </c>
-      <c r="M92" s="59">
-        <v>0</v>
-      </c>
-      <c r="N92" s="82"/>
-      <c r="O92" s="61"/>
-    </row>
-    <row r="93" spans="1:17">
+      <c r="K92" s="60">
+        <v>0</v>
+      </c>
+      <c r="L92" s="60">
+        <v>0</v>
+      </c>
+      <c r="M92" s="60">
+        <v>0</v>
+      </c>
+      <c r="N92" s="83"/>
+      <c r="O92" s="62"/>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" s="23">
         <v>35033</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C93" s="28">
         <v>3503</v>
@@ -5751,32 +6352,32 @@
         <v>5</v>
       </c>
       <c r="H93" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="I93" s="65" t="s">
         <v>174</v>
+      </c>
+      <c r="I93" s="66" t="s">
+        <v>175</v>
       </c>
       <c r="J93" s="4">
         <v>-2</v>
       </c>
-      <c r="K93" s="59">
-        <v>0</v>
-      </c>
-      <c r="L93" s="59">
-        <v>0</v>
-      </c>
-      <c r="M93" s="59">
-        <v>0</v>
-      </c>
-      <c r="N93" s="78"/>
-      <c r="O93" s="60"/>
-    </row>
-    <row r="94" spans="1:17">
+      <c r="K93" s="60">
+        <v>0</v>
+      </c>
+      <c r="L93" s="60">
+        <v>0</v>
+      </c>
+      <c r="M93" s="60">
+        <v>0</v>
+      </c>
+      <c r="N93" s="79"/>
+      <c r="O93" s="61"/>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" s="23">
         <v>35034</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C94" s="28">
         <v>3503</v>
@@ -5794,32 +6395,32 @@
         <v>5</v>
       </c>
       <c r="H94" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="I94" s="65" t="s">
         <v>174</v>
+      </c>
+      <c r="I94" s="66" t="s">
+        <v>175</v>
       </c>
       <c r="J94" s="4">
         <v>-2</v>
       </c>
-      <c r="K94" s="59">
-        <v>0</v>
-      </c>
-      <c r="L94" s="59">
-        <v>0</v>
-      </c>
-      <c r="M94" s="59">
-        <v>0</v>
-      </c>
-      <c r="N94" s="82"/>
-      <c r="O94" s="61"/>
-    </row>
-    <row r="95" spans="1:17" s="1" customFormat="1">
+      <c r="K94" s="60">
+        <v>0</v>
+      </c>
+      <c r="L94" s="60">
+        <v>0</v>
+      </c>
+      <c r="M94" s="60">
+        <v>0</v>
+      </c>
+      <c r="N94" s="83"/>
+      <c r="O94" s="62"/>
+    </row>
+    <row r="95" s="1" customFormat="1" spans="1:17">
       <c r="A95" s="28">
         <v>35035</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C95" s="28">
         <v>3503</v>
@@ -5837,37 +6438,37 @@
         <v>5</v>
       </c>
       <c r="H95" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="I95" s="65" t="s">
         <v>174</v>
+      </c>
+      <c r="I95" s="66" t="s">
+        <v>175</v>
       </c>
       <c r="J95" s="4">
         <v>-2</v>
       </c>
-      <c r="K95" s="59">
-        <v>0</v>
-      </c>
-      <c r="L95" s="59">
-        <v>0</v>
-      </c>
-      <c r="M95" s="59">
-        <v>0</v>
-      </c>
-      <c r="N95" s="82"/>
-      <c r="O95" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q95" s="63">
+      <c r="K95" s="60">
+        <v>0</v>
+      </c>
+      <c r="L95" s="60">
+        <v>0</v>
+      </c>
+      <c r="M95" s="60">
+        <v>0</v>
+      </c>
+      <c r="N95" s="83"/>
+      <c r="O95" s="62" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q95" s="64">
         <v>45006</v>
       </c>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:14">
       <c r="A96" s="23">
         <v>35036</v>
       </c>
       <c r="B96" s="37" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C96" s="28">
         <v>3503</v>
@@ -5885,31 +6486,31 @@
         <v>5</v>
       </c>
       <c r="H96" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="I96" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="J96" s="55">
+      <c r="I96" s="66" t="s">
+        <v>175</v>
+      </c>
+      <c r="J96" s="56">
         <v>-8</v>
       </c>
-      <c r="K96" s="55">
-        <v>0</v>
-      </c>
-      <c r="L96" s="55">
-        <v>0</v>
-      </c>
-      <c r="M96" s="55">
-        <v>0</v>
-      </c>
-      <c r="N96" s="82"/>
-    </row>
-    <row r="97" spans="1:17">
+      <c r="K96" s="56">
+        <v>0</v>
+      </c>
+      <c r="L96" s="56">
+        <v>0</v>
+      </c>
+      <c r="M96" s="56">
+        <v>0</v>
+      </c>
+      <c r="N96" s="83"/>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" s="28">
         <v>35041</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C97" s="28">
         <v>3504</v>
@@ -5927,32 +6528,32 @@
         <v>5</v>
       </c>
       <c r="H97" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="I97" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="J97" s="55">
+      <c r="I97" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="J97" s="56">
         <v>-1</v>
       </c>
-      <c r="K97" s="55">
-        <v>0</v>
-      </c>
-      <c r="L97" s="55">
-        <v>0</v>
-      </c>
-      <c r="M97" s="55">
-        <v>0</v>
-      </c>
-      <c r="N97" s="82"/>
-      <c r="O97" s="80"/>
-    </row>
-    <row r="98" spans="1:17">
+      <c r="K97" s="56">
+        <v>0</v>
+      </c>
+      <c r="L97" s="56">
+        <v>0</v>
+      </c>
+      <c r="M97" s="56">
+        <v>0</v>
+      </c>
+      <c r="N97" s="83"/>
+      <c r="O97" s="81"/>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" s="28">
         <v>35042</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C98" s="28">
         <v>3504</v>
@@ -5970,32 +6571,32 @@
         <v>5</v>
       </c>
       <c r="H98" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="I98" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="J98" s="59">
+      <c r="I98" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="J98" s="60">
         <v>-1</v>
       </c>
-      <c r="K98" s="59">
-        <v>0</v>
-      </c>
-      <c r="L98" s="59">
-        <v>0</v>
-      </c>
-      <c r="M98" s="59">
-        <v>0</v>
-      </c>
-      <c r="N98" s="82"/>
-      <c r="O98" s="80"/>
-    </row>
-    <row r="99" spans="1:17">
+      <c r="K98" s="60">
+        <v>0</v>
+      </c>
+      <c r="L98" s="60">
+        <v>0</v>
+      </c>
+      <c r="M98" s="60">
+        <v>0</v>
+      </c>
+      <c r="N98" s="83"/>
+      <c r="O98" s="81"/>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" s="28">
         <v>35043</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C99" s="28">
         <v>3504</v>
@@ -6013,32 +6614,32 @@
         <v>5</v>
       </c>
       <c r="H99" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="I99" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="J99" s="59">
+      <c r="I99" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="J99" s="60">
         <v>-2</v>
       </c>
-      <c r="K99" s="59">
-        <v>0</v>
-      </c>
-      <c r="L99" s="59">
-        <v>0</v>
-      </c>
-      <c r="M99" s="59">
-        <v>0</v>
-      </c>
-      <c r="N99" s="82"/>
-      <c r="O99" s="80"/>
-    </row>
-    <row r="100" spans="1:17">
+      <c r="K99" s="60">
+        <v>0</v>
+      </c>
+      <c r="L99" s="60">
+        <v>0</v>
+      </c>
+      <c r="M99" s="60">
+        <v>0</v>
+      </c>
+      <c r="N99" s="83"/>
+      <c r="O99" s="81"/>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" s="28">
         <v>35044</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C100" s="28">
         <v>3504</v>
@@ -6056,32 +6657,32 @@
         <v>5</v>
       </c>
       <c r="H100" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="I100" s="65" t="s">
         <v>183</v>
       </c>
-      <c r="J100" s="55">
+      <c r="I100" s="66" t="s">
+        <v>184</v>
+      </c>
+      <c r="J100" s="56">
         <v>-2</v>
       </c>
-      <c r="K100" s="55">
-        <v>0</v>
-      </c>
-      <c r="L100" s="55">
-        <v>0</v>
-      </c>
-      <c r="M100" s="55">
-        <v>0</v>
-      </c>
-      <c r="N100" s="82"/>
-      <c r="O100" s="80"/>
-    </row>
-    <row r="101" spans="1:17">
+      <c r="K100" s="56">
+        <v>0</v>
+      </c>
+      <c r="L100" s="56">
+        <v>0</v>
+      </c>
+      <c r="M100" s="56">
+        <v>0</v>
+      </c>
+      <c r="N100" s="83"/>
+      <c r="O100" s="81"/>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" s="23">
         <v>41011</v>
       </c>
-      <c r="B101" s="74" t="s">
-        <v>187</v>
+      <c r="B101" s="75" t="s">
+        <v>188</v>
       </c>
       <c r="C101" s="23">
         <v>4101</v>
@@ -6098,33 +6699,33 @@
       <c r="G101" s="23">
         <v>1</v>
       </c>
-      <c r="H101" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="I101" s="65" t="s">
+      <c r="H101" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="J101" s="55">
-        <v>2</v>
-      </c>
-      <c r="K101" s="55">
-        <v>1</v>
-      </c>
-      <c r="L101" s="55">
-        <v>0</v>
-      </c>
-      <c r="M101" s="55">
-        <v>2</v>
-      </c>
-      <c r="N101" s="82"/>
-      <c r="O101" s="61"/>
-    </row>
-    <row r="102" spans="1:17">
+      <c r="I101" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="J101" s="56">
+        <v>2</v>
+      </c>
+      <c r="K101" s="56">
+        <v>1</v>
+      </c>
+      <c r="L101" s="56">
+        <v>0</v>
+      </c>
+      <c r="M101" s="56">
+        <v>2</v>
+      </c>
+      <c r="N101" s="83"/>
+      <c r="O101" s="62"/>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="23">
         <v>41012</v>
       </c>
-      <c r="B102" s="74" t="s">
-        <v>190</v>
+      <c r="B102" s="75" t="s">
+        <v>191</v>
       </c>
       <c r="C102" s="23">
         <v>4101</v>
@@ -6141,31 +6742,31 @@
       <c r="G102" s="23">
         <v>1</v>
       </c>
-      <c r="H102" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="I102" s="65" t="s">
+      <c r="H102" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="J102" s="59">
-        <v>2</v>
-      </c>
-      <c r="K102" s="59">
-        <v>1</v>
-      </c>
-      <c r="L102" s="59">
-        <v>0</v>
-      </c>
-      <c r="M102" s="59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17">
+      <c r="I102" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="J102" s="60">
+        <v>2</v>
+      </c>
+      <c r="K102" s="60">
+        <v>1</v>
+      </c>
+      <c r="L102" s="60">
+        <v>0</v>
+      </c>
+      <c r="M102" s="60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="23">
         <v>41013</v>
       </c>
-      <c r="B103" s="74" t="s">
-        <v>191</v>
+      <c r="B103" s="75" t="s">
+        <v>192</v>
       </c>
       <c r="C103" s="23">
         <v>4101</v>
@@ -6182,31 +6783,31 @@
       <c r="G103" s="23">
         <v>1</v>
       </c>
-      <c r="H103" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="I103" s="65" t="s">
+      <c r="H103" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="J103" s="59">
-        <v>2</v>
-      </c>
-      <c r="K103" s="59">
-        <v>2</v>
-      </c>
-      <c r="L103" s="59">
-        <v>0</v>
-      </c>
-      <c r="M103" s="59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17">
+      <c r="I103" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="J103" s="60">
+        <v>2</v>
+      </c>
+      <c r="K103" s="60">
+        <v>2</v>
+      </c>
+      <c r="L103" s="60">
+        <v>0</v>
+      </c>
+      <c r="M103" s="60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="23">
         <v>41014</v>
       </c>
-      <c r="B104" s="74" t="s">
-        <v>192</v>
+      <c r="B104" s="75" t="s">
+        <v>193</v>
       </c>
       <c r="C104" s="23">
         <v>4101</v>
@@ -6223,31 +6824,31 @@
       <c r="G104" s="23">
         <v>1</v>
       </c>
-      <c r="H104" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="I104" s="65" t="s">
+      <c r="H104" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="J104" s="59">
-        <v>2</v>
-      </c>
-      <c r="K104" s="59">
-        <v>2</v>
-      </c>
-      <c r="L104" s="59">
-        <v>0</v>
-      </c>
-      <c r="M104" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:17">
+      <c r="I104" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="J104" s="60">
+        <v>2</v>
+      </c>
+      <c r="K104" s="60">
+        <v>2</v>
+      </c>
+      <c r="L104" s="60">
+        <v>0</v>
+      </c>
+      <c r="M104" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" s="23">
         <v>41015</v>
       </c>
-      <c r="B105" s="74" t="s">
-        <v>193</v>
+      <c r="B105" s="75" t="s">
+        <v>194</v>
       </c>
       <c r="C105" s="23">
         <v>4101</v>
@@ -6264,33 +6865,33 @@
       <c r="G105" s="23">
         <v>1</v>
       </c>
-      <c r="H105" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="I105" s="65" t="s">
+      <c r="H105" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="J105" s="59">
-        <v>3</v>
-      </c>
-      <c r="K105" s="59">
-        <v>2</v>
-      </c>
-      <c r="L105" s="59">
-        <v>0</v>
-      </c>
-      <c r="M105" s="59">
-        <v>3</v>
-      </c>
-      <c r="N105" s="82"/>
-      <c r="O105" s="61"/>
-    </row>
-    <row r="106" spans="1:17">
+      <c r="I105" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="J105" s="60">
+        <v>3</v>
+      </c>
+      <c r="K105" s="60">
+        <v>2</v>
+      </c>
+      <c r="L105" s="60">
+        <v>0</v>
+      </c>
+      <c r="M105" s="60">
+        <v>3</v>
+      </c>
+      <c r="N105" s="83"/>
+      <c r="O105" s="62"/>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" s="23">
         <v>41016</v>
       </c>
-      <c r="B106" s="74" t="s">
-        <v>194</v>
+      <c r="B106" s="75" t="s">
+        <v>195</v>
       </c>
       <c r="C106" s="23">
         <v>4101</v>
@@ -6307,33 +6908,33 @@
       <c r="G106" s="23">
         <v>1</v>
       </c>
-      <c r="H106" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="I106" s="65" t="s">
+      <c r="H106" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="J106" s="59">
-        <v>3</v>
-      </c>
-      <c r="K106" s="59">
-        <v>2</v>
-      </c>
-      <c r="L106" s="59">
-        <v>0</v>
-      </c>
-      <c r="M106" s="59">
-        <v>2</v>
-      </c>
-      <c r="N106" s="82"/>
-      <c r="O106" s="61"/>
-    </row>
-    <row r="107" spans="1:17">
+      <c r="I106" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="J106" s="60">
+        <v>3</v>
+      </c>
+      <c r="K106" s="60">
+        <v>2</v>
+      </c>
+      <c r="L106" s="60">
+        <v>0</v>
+      </c>
+      <c r="M106" s="60">
+        <v>2</v>
+      </c>
+      <c r="N106" s="83"/>
+      <c r="O106" s="62"/>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" s="23">
         <v>41017</v>
       </c>
-      <c r="B107" s="74" t="s">
-        <v>195</v>
+      <c r="B107" s="75" t="s">
+        <v>196</v>
       </c>
       <c r="C107" s="23">
         <v>4101</v>
@@ -6350,33 +6951,33 @@
       <c r="G107" s="23">
         <v>1</v>
       </c>
-      <c r="H107" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="I107" s="65" t="s">
+      <c r="H107" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="J107" s="59">
-        <v>3</v>
-      </c>
-      <c r="K107" s="59">
-        <v>3</v>
-      </c>
-      <c r="L107" s="59">
-        <v>0</v>
-      </c>
-      <c r="M107" s="59">
-        <v>0</v>
-      </c>
-      <c r="N107" s="82"/>
-      <c r="O107" s="61"/>
-    </row>
-    <row r="108" spans="1:17">
+      <c r="I107" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="J107" s="60">
+        <v>3</v>
+      </c>
+      <c r="K107" s="60">
+        <v>3</v>
+      </c>
+      <c r="L107" s="60">
+        <v>0</v>
+      </c>
+      <c r="M107" s="60">
+        <v>0</v>
+      </c>
+      <c r="N107" s="83"/>
+      <c r="O107" s="62"/>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" s="23">
         <v>41018</v>
       </c>
-      <c r="B108" s="74" t="s">
-        <v>196</v>
+      <c r="B108" s="75" t="s">
+        <v>197</v>
       </c>
       <c r="C108" s="23">
         <v>4101</v>
@@ -6393,33 +6994,33 @@
       <c r="G108" s="23">
         <v>1</v>
       </c>
-      <c r="H108" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="I108" s="65" t="s">
+      <c r="H108" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="J108" s="59">
-        <v>3</v>
-      </c>
-      <c r="K108" s="59">
-        <v>3</v>
-      </c>
-      <c r="L108" s="59">
-        <v>0</v>
-      </c>
-      <c r="M108" s="59">
-        <v>1</v>
-      </c>
-      <c r="N108" s="82"/>
-      <c r="O108" s="61"/>
+      <c r="I108" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="J108" s="60">
+        <v>3</v>
+      </c>
+      <c r="K108" s="60">
+        <v>3</v>
+      </c>
+      <c r="L108" s="60">
+        <v>0</v>
+      </c>
+      <c r="M108" s="60">
+        <v>1</v>
+      </c>
+      <c r="N108" s="83"/>
+      <c r="O108" s="62"/>
     </row>
     <row r="109" spans="1:17">
       <c r="A109" s="23">
         <v>41019</v>
       </c>
-      <c r="B109" s="76" t="s">
-        <v>197</v>
+      <c r="B109" s="77" t="s">
+        <v>198</v>
       </c>
       <c r="C109" s="23">
         <v>4101</v>
@@ -6436,30 +7037,30 @@
       <c r="G109" s="23">
         <v>1</v>
       </c>
-      <c r="H109" s="75" t="s">
-        <v>188</v>
-      </c>
-      <c r="I109" s="65" t="s">
+      <c r="H109" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="J109" s="55">
-        <v>2</v>
-      </c>
-      <c r="K109" s="55">
-        <v>0</v>
-      </c>
-      <c r="L109" s="55">
-        <v>0</v>
-      </c>
-      <c r="M109" s="55">
-        <v>0</v>
-      </c>
-      <c r="N109" s="78"/>
+      <c r="I109" s="66" t="s">
+        <v>190</v>
+      </c>
+      <c r="J109" s="56">
+        <v>2</v>
+      </c>
+      <c r="K109" s="56">
+        <v>0</v>
+      </c>
+      <c r="L109" s="56">
+        <v>0</v>
+      </c>
+      <c r="M109" s="56">
+        <v>0</v>
+      </c>
+      <c r="N109" s="79"/>
       <c r="O109" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="P109" s="84" t="s">
-        <v>171</v>
+        <v>199</v>
+      </c>
+      <c r="P109" s="85" t="s">
+        <v>172</v>
       </c>
       <c r="Q109" s="2">
         <v>26006</v>
@@ -6469,8 +7070,8 @@
       <c r="A110" s="23">
         <v>43011</v>
       </c>
-      <c r="B110" s="77" t="s">
-        <v>199</v>
+      <c r="B110" s="78" t="s">
+        <v>200</v>
       </c>
       <c r="C110" s="23">
         <v>4301</v>
@@ -6487,26 +7088,26 @@
       <c r="G110" s="19">
         <v>3</v>
       </c>
-      <c r="H110" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I110" s="65" t="s">
+      <c r="H110" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="J110" s="55">
-        <v>1</v>
-      </c>
-      <c r="K110" s="55">
-        <v>1</v>
-      </c>
-      <c r="L110" s="55">
-        <v>0</v>
-      </c>
-      <c r="M110" s="55">
-        <v>1</v>
-      </c>
-      <c r="N110" s="82"/>
-      <c r="O110" s="61"/>
+      <c r="I110" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="J110" s="56">
+        <v>1</v>
+      </c>
+      <c r="K110" s="56">
+        <v>1</v>
+      </c>
+      <c r="L110" s="56">
+        <v>0</v>
+      </c>
+      <c r="M110" s="56">
+        <v>1</v>
+      </c>
+      <c r="N110" s="83"/>
+      <c r="O110" s="62"/>
       <c r="P110"/>
       <c r="Q110"/>
     </row>
@@ -6514,8 +7115,8 @@
       <c r="A111" s="23">
         <v>43012</v>
       </c>
-      <c r="B111" s="77" t="s">
-        <v>202</v>
+      <c r="B111" s="78" t="s">
+        <v>203</v>
       </c>
       <c r="C111" s="23">
         <v>4301</v>
@@ -6532,26 +7133,26 @@
       <c r="G111" s="19">
         <v>3</v>
       </c>
-      <c r="H111" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I111" s="65" t="s">
+      <c r="H111" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="J111" s="55">
-        <v>1</v>
-      </c>
-      <c r="K111" s="55">
-        <v>1</v>
-      </c>
-      <c r="L111" s="55">
-        <v>0</v>
-      </c>
-      <c r="M111" s="55">
-        <v>0</v>
-      </c>
-      <c r="N111" s="82"/>
-      <c r="O111" s="61"/>
+      <c r="I111" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="J111" s="56">
+        <v>1</v>
+      </c>
+      <c r="K111" s="56">
+        <v>1</v>
+      </c>
+      <c r="L111" s="56">
+        <v>0</v>
+      </c>
+      <c r="M111" s="56">
+        <v>0</v>
+      </c>
+      <c r="N111" s="83"/>
+      <c r="O111" s="62"/>
       <c r="P111"/>
       <c r="Q111"/>
     </row>
@@ -6559,8 +7160,8 @@
       <c r="A112" s="23">
         <v>43013</v>
       </c>
-      <c r="B112" s="77" t="s">
-        <v>203</v>
+      <c r="B112" s="78" t="s">
+        <v>204</v>
       </c>
       <c r="C112" s="23">
         <v>4301</v>
@@ -6577,27 +7178,27 @@
       <c r="G112" s="19">
         <v>3</v>
       </c>
-      <c r="H112" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I112" s="65" t="s">
+      <c r="H112" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="J112" s="55">
-        <v>1</v>
-      </c>
-      <c r="K112" s="55">
-        <v>0</v>
-      </c>
-      <c r="L112" s="55">
-        <v>1</v>
-      </c>
-      <c r="M112" s="55">
-        <v>1</v>
-      </c>
-      <c r="N112" s="82"/>
-      <c r="O112" s="61" t="s">
-        <v>36</v>
+      <c r="I112" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="J112" s="56">
+        <v>1</v>
+      </c>
+      <c r="K112" s="56">
+        <v>0</v>
+      </c>
+      <c r="L112" s="56">
+        <v>1</v>
+      </c>
+      <c r="M112" s="56">
+        <v>1</v>
+      </c>
+      <c r="N112" s="83"/>
+      <c r="O112" s="62" t="s">
+        <v>37</v>
       </c>
       <c r="P112"/>
       <c r="Q112"/>
@@ -6606,8 +7207,8 @@
       <c r="A113" s="23">
         <v>43014</v>
       </c>
-      <c r="B113" s="74" t="s">
-        <v>204</v>
+      <c r="B113" s="75" t="s">
+        <v>205</v>
       </c>
       <c r="C113" s="23">
         <v>4301</v>
@@ -6624,27 +7225,27 @@
       <c r="G113" s="19">
         <v>3</v>
       </c>
-      <c r="H113" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I113" s="65" t="s">
+      <c r="H113" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="J113" s="55">
-        <v>1</v>
-      </c>
-      <c r="K113" s="55">
-        <v>0</v>
-      </c>
-      <c r="L113" s="55">
-        <v>1</v>
-      </c>
-      <c r="M113" s="55">
-        <v>0</v>
-      </c>
-      <c r="N113" s="82"/>
-      <c r="O113" s="61" t="s">
-        <v>36</v>
+      <c r="I113" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="J113" s="56">
+        <v>1</v>
+      </c>
+      <c r="K113" s="56">
+        <v>0</v>
+      </c>
+      <c r="L113" s="56">
+        <v>1</v>
+      </c>
+      <c r="M113" s="56">
+        <v>0</v>
+      </c>
+      <c r="N113" s="83"/>
+      <c r="O113" s="62" t="s">
+        <v>37</v>
       </c>
       <c r="P113"/>
       <c r="Q113"/>
@@ -6653,8 +7254,8 @@
       <c r="A114" s="23">
         <v>43015</v>
       </c>
-      <c r="B114" s="74" t="s">
-        <v>205</v>
+      <c r="B114" s="75" t="s">
+        <v>206</v>
       </c>
       <c r="C114" s="23">
         <v>4301</v>
@@ -6671,27 +7272,27 @@
       <c r="G114" s="19">
         <v>3</v>
       </c>
-      <c r="H114" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I114" s="65" t="s">
+      <c r="H114" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="J114" s="55">
-        <v>2</v>
-      </c>
-      <c r="K114" s="55">
-        <v>1</v>
-      </c>
-      <c r="L114" s="55">
-        <v>1</v>
-      </c>
-      <c r="M114" s="55">
-        <v>0</v>
-      </c>
-      <c r="N114" s="78"/>
-      <c r="O114" s="61" t="s">
-        <v>36</v>
+      <c r="I114" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="J114" s="56">
+        <v>2</v>
+      </c>
+      <c r="K114" s="56">
+        <v>1</v>
+      </c>
+      <c r="L114" s="56">
+        <v>1</v>
+      </c>
+      <c r="M114" s="56">
+        <v>0</v>
+      </c>
+      <c r="N114" s="79"/>
+      <c r="O114" s="62" t="s">
+        <v>37</v>
       </c>
       <c r="P114"/>
       <c r="Q114"/>
@@ -6700,8 +7301,8 @@
       <c r="A115" s="23">
         <v>43016</v>
       </c>
-      <c r="B115" s="74" t="s">
-        <v>206</v>
+      <c r="B115" s="75" t="s">
+        <v>207</v>
       </c>
       <c r="C115" s="23">
         <v>4301</v>
@@ -6718,26 +7319,26 @@
       <c r="G115" s="19">
         <v>3</v>
       </c>
-      <c r="H115" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I115" s="65" t="s">
+      <c r="H115" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="J115" s="55">
-        <v>2</v>
-      </c>
-      <c r="K115" s="55">
-        <v>1</v>
-      </c>
-      <c r="L115" s="55">
-        <v>0</v>
-      </c>
-      <c r="M115" s="55">
-        <v>2</v>
-      </c>
-      <c r="N115" s="85"/>
-      <c r="O115" s="86"/>
+      <c r="I115" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="J115" s="56">
+        <v>2</v>
+      </c>
+      <c r="K115" s="56">
+        <v>1</v>
+      </c>
+      <c r="L115" s="56">
+        <v>0</v>
+      </c>
+      <c r="M115" s="56">
+        <v>2</v>
+      </c>
+      <c r="N115" s="86"/>
+      <c r="O115" s="87"/>
       <c r="P115"/>
       <c r="Q115"/>
     </row>
@@ -6745,8 +7346,8 @@
       <c r="A116" s="23">
         <v>43017</v>
       </c>
-      <c r="B116" s="74" t="s">
-        <v>207</v>
+      <c r="B116" s="75" t="s">
+        <v>208</v>
       </c>
       <c r="C116" s="23">
         <v>4301</v>
@@ -6763,26 +7364,26 @@
       <c r="G116" s="19">
         <v>3</v>
       </c>
-      <c r="H116" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I116" s="65" t="s">
+      <c r="H116" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="J116" s="55">
-        <v>2</v>
-      </c>
-      <c r="K116" s="55">
-        <v>1</v>
-      </c>
-      <c r="L116" s="55">
-        <v>0</v>
-      </c>
-      <c r="M116" s="55">
-        <v>3</v>
-      </c>
-      <c r="N116" s="85"/>
-      <c r="O116" s="86"/>
+      <c r="I116" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="J116" s="56">
+        <v>2</v>
+      </c>
+      <c r="K116" s="56">
+        <v>1</v>
+      </c>
+      <c r="L116" s="56">
+        <v>0</v>
+      </c>
+      <c r="M116" s="56">
+        <v>3</v>
+      </c>
+      <c r="N116" s="86"/>
+      <c r="O116" s="87"/>
       <c r="P116"/>
       <c r="Q116"/>
     </row>
@@ -6790,8 +7391,8 @@
       <c r="A117" s="23">
         <v>43018</v>
       </c>
-      <c r="B117" s="74" t="s">
-        <v>208</v>
+      <c r="B117" s="75" t="s">
+        <v>209</v>
       </c>
       <c r="C117" s="23">
         <v>4301</v>
@@ -6808,27 +7409,27 @@
       <c r="G117" s="19">
         <v>3</v>
       </c>
-      <c r="H117" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I117" s="65" t="s">
+      <c r="H117" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="J117" s="55">
-        <v>2</v>
-      </c>
-      <c r="K117" s="55">
-        <v>1</v>
-      </c>
-      <c r="L117" s="55">
-        <v>1</v>
-      </c>
-      <c r="M117" s="55">
-        <v>1</v>
-      </c>
-      <c r="N117" s="85"/>
-      <c r="O117" s="61" t="s">
-        <v>36</v>
+      <c r="I117" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="J117" s="56">
+        <v>2</v>
+      </c>
+      <c r="K117" s="56">
+        <v>1</v>
+      </c>
+      <c r="L117" s="56">
+        <v>1</v>
+      </c>
+      <c r="M117" s="56">
+        <v>1</v>
+      </c>
+      <c r="N117" s="86"/>
+      <c r="O117" s="62" t="s">
+        <v>37</v>
       </c>
       <c r="P117"/>
       <c r="Q117"/>
@@ -6837,8 +7438,8 @@
       <c r="A118" s="23">
         <v>43019</v>
       </c>
-      <c r="B118" s="74" t="s">
-        <v>209</v>
+      <c r="B118" s="75" t="s">
+        <v>210</v>
       </c>
       <c r="C118" s="23">
         <v>4301</v>
@@ -6855,27 +7456,27 @@
       <c r="G118" s="19">
         <v>3</v>
       </c>
-      <c r="H118" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I118" s="65" t="s">
+      <c r="H118" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="J118" s="55">
-        <v>3</v>
-      </c>
-      <c r="K118" s="55">
-        <v>1</v>
-      </c>
-      <c r="L118" s="55">
-        <v>1</v>
-      </c>
-      <c r="M118" s="55">
-        <v>2</v>
-      </c>
-      <c r="N118" s="85"/>
-      <c r="O118" s="61" t="s">
-        <v>36</v>
+      <c r="I118" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="J118" s="56">
+        <v>3</v>
+      </c>
+      <c r="K118" s="56">
+        <v>1</v>
+      </c>
+      <c r="L118" s="56">
+        <v>1</v>
+      </c>
+      <c r="M118" s="56">
+        <v>2</v>
+      </c>
+      <c r="N118" s="86"/>
+      <c r="O118" s="62" t="s">
+        <v>37</v>
       </c>
       <c r="P118"/>
       <c r="Q118"/>
@@ -6884,8 +7485,8 @@
       <c r="A119" s="23">
         <v>43020</v>
       </c>
-      <c r="B119" s="74" t="s">
-        <v>210</v>
+      <c r="B119" s="75" t="s">
+        <v>211</v>
       </c>
       <c r="C119" s="23">
         <v>4301</v>
@@ -6902,27 +7503,27 @@
       <c r="G119" s="19">
         <v>3</v>
       </c>
-      <c r="H119" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I119" s="65" t="s">
+      <c r="H119" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="J119" s="55">
-        <v>3</v>
-      </c>
-      <c r="K119" s="55">
-        <v>1</v>
-      </c>
-      <c r="L119" s="55">
-        <v>1</v>
-      </c>
-      <c r="M119" s="55">
-        <v>3</v>
-      </c>
-      <c r="N119" s="85"/>
-      <c r="O119" s="61" t="s">
-        <v>36</v>
+      <c r="I119" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="J119" s="56">
+        <v>3</v>
+      </c>
+      <c r="K119" s="56">
+        <v>1</v>
+      </c>
+      <c r="L119" s="56">
+        <v>1</v>
+      </c>
+      <c r="M119" s="56">
+        <v>3</v>
+      </c>
+      <c r="N119" s="86"/>
+      <c r="O119" s="62" t="s">
+        <v>37</v>
       </c>
       <c r="P119"/>
       <c r="Q119"/>
@@ -6931,8 +7532,8 @@
       <c r="A120" s="23">
         <v>43021</v>
       </c>
-      <c r="B120" s="74" t="s">
-        <v>211</v>
+      <c r="B120" s="75" t="s">
+        <v>212</v>
       </c>
       <c r="C120" s="23">
         <v>4301</v>
@@ -6949,26 +7550,26 @@
       <c r="G120" s="19">
         <v>3</v>
       </c>
-      <c r="H120" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I120" s="65" t="s">
+      <c r="H120" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="J120" s="55">
-        <v>3</v>
-      </c>
-      <c r="K120" s="55">
-        <v>1</v>
-      </c>
-      <c r="L120" s="55">
-        <v>0</v>
-      </c>
-      <c r="M120" s="55">
-        <v>4</v>
-      </c>
-      <c r="N120" s="85"/>
-      <c r="O120" s="86"/>
+      <c r="I120" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="J120" s="56">
+        <v>3</v>
+      </c>
+      <c r="K120" s="56">
+        <v>1</v>
+      </c>
+      <c r="L120" s="56">
+        <v>0</v>
+      </c>
+      <c r="M120" s="56">
+        <v>4</v>
+      </c>
+      <c r="N120" s="86"/>
+      <c r="O120" s="87"/>
       <c r="P120"/>
       <c r="Q120"/>
     </row>
@@ -6976,8 +7577,8 @@
       <c r="A121" s="23">
         <v>43022</v>
       </c>
-      <c r="B121" s="74" t="s">
-        <v>212</v>
+      <c r="B121" s="75" t="s">
+        <v>213</v>
       </c>
       <c r="C121" s="23">
         <v>4301</v>
@@ -6994,27 +7595,27 @@
       <c r="G121" s="19">
         <v>3</v>
       </c>
-      <c r="H121" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I121" s="65" t="s">
+      <c r="H121" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="J121" s="55">
-        <v>3</v>
-      </c>
-      <c r="K121" s="55">
-        <v>1</v>
-      </c>
-      <c r="L121" s="55">
-        <v>2</v>
-      </c>
-      <c r="M121" s="55">
-        <v>0</v>
-      </c>
-      <c r="N121" s="85"/>
-      <c r="O121" s="61" t="s">
-        <v>156</v>
+      <c r="I121" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="J121" s="56">
+        <v>3</v>
+      </c>
+      <c r="K121" s="56">
+        <v>1</v>
+      </c>
+      <c r="L121" s="56">
+        <v>2</v>
+      </c>
+      <c r="M121" s="56">
+        <v>0</v>
+      </c>
+      <c r="N121" s="86"/>
+      <c r="O121" s="62" t="s">
+        <v>157</v>
       </c>
       <c r="P121"/>
       <c r="Q121"/>
@@ -7023,8 +7624,8 @@
       <c r="A122" s="23">
         <v>43023</v>
       </c>
-      <c r="B122" s="74" t="s">
-        <v>213</v>
+      <c r="B122" s="75" t="s">
+        <v>214</v>
       </c>
       <c r="C122" s="23">
         <v>4301</v>
@@ -7041,27 +7642,27 @@
       <c r="G122" s="19">
         <v>3</v>
       </c>
-      <c r="H122" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I122" s="65" t="s">
+      <c r="H122" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="J122" s="55">
-        <v>4</v>
-      </c>
-      <c r="K122" s="55">
-        <v>1</v>
-      </c>
-      <c r="L122" s="55">
-        <v>2</v>
-      </c>
-      <c r="M122" s="55">
-        <v>2</v>
-      </c>
-      <c r="N122" s="85"/>
-      <c r="O122" s="61" t="s">
-        <v>156</v>
+      <c r="I122" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="J122" s="56">
+        <v>4</v>
+      </c>
+      <c r="K122" s="56">
+        <v>1</v>
+      </c>
+      <c r="L122" s="56">
+        <v>2</v>
+      </c>
+      <c r="M122" s="56">
+        <v>2</v>
+      </c>
+      <c r="N122" s="86"/>
+      <c r="O122" s="62" t="s">
+        <v>157</v>
       </c>
       <c r="P122"/>
       <c r="Q122"/>
@@ -7070,8 +7671,8 @@
       <c r="A123" s="23">
         <v>43024</v>
       </c>
-      <c r="B123" s="74" t="s">
-        <v>214</v>
+      <c r="B123" s="75" t="s">
+        <v>215</v>
       </c>
       <c r="C123" s="23">
         <v>4301</v>
@@ -7088,27 +7689,27 @@
       <c r="G123" s="19">
         <v>3</v>
       </c>
-      <c r="H123" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I123" s="65" t="s">
+      <c r="H123" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="J123" s="55">
-        <v>4</v>
-      </c>
-      <c r="K123" s="55">
-        <v>1</v>
-      </c>
-      <c r="L123" s="55">
-        <v>2</v>
-      </c>
-      <c r="M123" s="55">
-        <v>3</v>
-      </c>
-      <c r="N123" s="85"/>
-      <c r="O123" s="61" t="s">
-        <v>156</v>
+      <c r="I123" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="J123" s="56">
+        <v>4</v>
+      </c>
+      <c r="K123" s="56">
+        <v>1</v>
+      </c>
+      <c r="L123" s="56">
+        <v>2</v>
+      </c>
+      <c r="M123" s="56">
+        <v>3</v>
+      </c>
+      <c r="N123" s="86"/>
+      <c r="O123" s="62" t="s">
+        <v>157</v>
       </c>
       <c r="P123"/>
       <c r="Q123"/>
@@ -7117,8 +7718,8 @@
       <c r="A124" s="23">
         <v>43025</v>
       </c>
-      <c r="B124" s="74" t="s">
-        <v>215</v>
+      <c r="B124" s="75" t="s">
+        <v>216</v>
       </c>
       <c r="C124" s="23">
         <v>4301</v>
@@ -7135,27 +7736,27 @@
       <c r="G124" s="19">
         <v>3</v>
       </c>
-      <c r="H124" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I124" s="65" t="s">
+      <c r="H124" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="J124" s="55">
-        <v>4</v>
-      </c>
-      <c r="K124" s="55">
-        <v>1</v>
-      </c>
-      <c r="L124" s="55">
-        <v>1</v>
-      </c>
-      <c r="M124" s="55">
-        <v>4</v>
-      </c>
-      <c r="N124" s="85"/>
-      <c r="O124" s="61" t="s">
-        <v>36</v>
+      <c r="I124" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="J124" s="56">
+        <v>4</v>
+      </c>
+      <c r="K124" s="56">
+        <v>1</v>
+      </c>
+      <c r="L124" s="56">
+        <v>1</v>
+      </c>
+      <c r="M124" s="56">
+        <v>4</v>
+      </c>
+      <c r="N124" s="86"/>
+      <c r="O124" s="62" t="s">
+        <v>37</v>
       </c>
       <c r="P124"/>
       <c r="Q124"/>
@@ -7164,8 +7765,8 @@
       <c r="A125" s="23">
         <v>43026</v>
       </c>
-      <c r="B125" s="74" t="s">
-        <v>216</v>
+      <c r="B125" s="75" t="s">
+        <v>217</v>
       </c>
       <c r="C125" s="23">
         <v>4301</v>
@@ -7182,27 +7783,27 @@
       <c r="G125" s="19">
         <v>3</v>
       </c>
-      <c r="H125" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I125" s="65" t="s">
+      <c r="H125" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="J125" s="55">
-        <v>4</v>
-      </c>
-      <c r="K125" s="55">
-        <v>1</v>
-      </c>
-      <c r="L125" s="55">
-        <v>3</v>
-      </c>
-      <c r="M125" s="55">
-        <v>1</v>
-      </c>
-      <c r="N125" s="85"/>
-      <c r="O125" s="61" t="s">
-        <v>168</v>
+      <c r="I125" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="J125" s="56">
+        <v>4</v>
+      </c>
+      <c r="K125" s="56">
+        <v>1</v>
+      </c>
+      <c r="L125" s="56">
+        <v>3</v>
+      </c>
+      <c r="M125" s="56">
+        <v>1</v>
+      </c>
+      <c r="N125" s="86"/>
+      <c r="O125" s="62" t="s">
+        <v>169</v>
       </c>
       <c r="P125"/>
       <c r="Q125"/>
@@ -7211,8 +7812,8 @@
       <c r="A126" s="23">
         <v>43027</v>
       </c>
-      <c r="B126" s="74" t="s">
-        <v>217</v>
+      <c r="B126" s="75" t="s">
+        <v>218</v>
       </c>
       <c r="C126" s="23">
         <v>4301</v>
@@ -7229,27 +7830,27 @@
       <c r="G126" s="19">
         <v>3</v>
       </c>
-      <c r="H126" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I126" s="65" t="s">
+      <c r="H126" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="J126" s="55">
+      <c r="I126" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="J126" s="56">
         <v>5</v>
       </c>
-      <c r="K126" s="55">
-        <v>1</v>
-      </c>
-      <c r="L126" s="55">
-        <v>3</v>
-      </c>
-      <c r="M126" s="55">
-        <v>2</v>
-      </c>
-      <c r="N126" s="85"/>
-      <c r="O126" s="61" t="s">
-        <v>168</v>
+      <c r="K126" s="56">
+        <v>1</v>
+      </c>
+      <c r="L126" s="56">
+        <v>3</v>
+      </c>
+      <c r="M126" s="56">
+        <v>2</v>
+      </c>
+      <c r="N126" s="86"/>
+      <c r="O126" s="62" t="s">
+        <v>169</v>
       </c>
       <c r="P126"/>
       <c r="Q126"/>
@@ -7258,8 +7859,8 @@
       <c r="A127" s="23">
         <v>43028</v>
       </c>
-      <c r="B127" s="76" t="s">
-        <v>218</v>
+      <c r="B127" s="77" t="s">
+        <v>219</v>
       </c>
       <c r="C127" s="23">
         <v>4301</v>
@@ -7276,39 +7877,39 @@
       <c r="G127" s="23">
         <v>3</v>
       </c>
-      <c r="H127" s="75" t="s">
-        <v>200</v>
-      </c>
-      <c r="I127" s="65" t="s">
+      <c r="H127" s="76" t="s">
         <v>201</v>
       </c>
-      <c r="J127" s="55">
-        <v>2</v>
-      </c>
-      <c r="K127" s="55">
-        <v>2</v>
-      </c>
-      <c r="L127" s="55">
-        <v>0</v>
-      </c>
-      <c r="M127" s="55">
-        <v>0</v>
-      </c>
-      <c r="N127" s="85"/>
+      <c r="I127" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="J127" s="56">
+        <v>2</v>
+      </c>
+      <c r="K127" s="56">
+        <v>2</v>
+      </c>
+      <c r="L127" s="56">
+        <v>0</v>
+      </c>
+      <c r="M127" s="56">
+        <v>0</v>
+      </c>
+      <c r="N127" s="86"/>
       <c r="O127" s="18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P127"/>
       <c r="Q127" s="2">
         <v>17006</v>
       </c>
     </row>
-    <row r="128" spans="1:17">
+    <row r="128" spans="1:16">
       <c r="A128" s="23">
         <v>43031</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C128" s="23">
         <v>4303</v>
@@ -7326,33 +7927,33 @@
         <v>3</v>
       </c>
       <c r="H128" t="s">
-        <v>221</v>
-      </c>
-      <c r="I128" s="65" t="s">
         <v>222</v>
       </c>
-      <c r="J128" s="55">
-        <v>1</v>
-      </c>
-      <c r="K128" s="55">
-        <v>0</v>
-      </c>
-      <c r="L128" s="55">
-        <v>0</v>
-      </c>
-      <c r="M128" s="55">
-        <v>2</v>
-      </c>
-      <c r="N128" s="85"/>
-      <c r="O128" s="61"/>
+      <c r="I128" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="J128" s="56">
+        <v>1</v>
+      </c>
+      <c r="K128" s="56">
+        <v>0</v>
+      </c>
+      <c r="L128" s="56">
+        <v>0</v>
+      </c>
+      <c r="M128" s="56">
+        <v>2</v>
+      </c>
+      <c r="N128" s="86"/>
+      <c r="O128" s="62"/>
       <c r="P128"/>
     </row>
-    <row r="129" spans="1:17">
+    <row r="129" spans="1:16">
       <c r="A129" s="23">
         <v>43032</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C129" s="23">
         <v>4303</v>
@@ -7370,33 +7971,33 @@
         <v>3</v>
       </c>
       <c r="H129" t="s">
-        <v>221</v>
-      </c>
-      <c r="I129" s="65" t="s">
         <v>222</v>
       </c>
-      <c r="J129" s="55">
-        <v>2</v>
-      </c>
-      <c r="K129" s="55">
-        <v>0</v>
-      </c>
-      <c r="L129" s="55">
-        <v>0</v>
-      </c>
-      <c r="M129" s="55">
-        <v>3</v>
-      </c>
-      <c r="N129" s="85"/>
-      <c r="O129" s="61"/>
+      <c r="I129" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="J129" s="56">
+        <v>2</v>
+      </c>
+      <c r="K129" s="56">
+        <v>0</v>
+      </c>
+      <c r="L129" s="56">
+        <v>0</v>
+      </c>
+      <c r="M129" s="56">
+        <v>3</v>
+      </c>
+      <c r="N129" s="86"/>
+      <c r="O129" s="62"/>
       <c r="P129"/>
     </row>
-    <row r="130" spans="1:17">
+    <row r="130" spans="1:16">
       <c r="A130" s="23">
         <v>43033</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C130" s="23">
         <v>4303</v>
@@ -7414,33 +8015,33 @@
         <v>3</v>
       </c>
       <c r="H130" t="s">
-        <v>221</v>
-      </c>
-      <c r="I130" s="65" t="s">
         <v>222</v>
       </c>
-      <c r="J130" s="55">
-        <v>2</v>
-      </c>
-      <c r="K130" s="55">
-        <v>0</v>
-      </c>
-      <c r="L130" s="55">
-        <v>0</v>
-      </c>
-      <c r="M130" s="55">
-        <v>4</v>
-      </c>
-      <c r="N130" s="85"/>
-      <c r="O130" s="61"/>
+      <c r="I130" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="J130" s="56">
+        <v>2</v>
+      </c>
+      <c r="K130" s="56">
+        <v>0</v>
+      </c>
+      <c r="L130" s="56">
+        <v>0</v>
+      </c>
+      <c r="M130" s="56">
+        <v>4</v>
+      </c>
+      <c r="N130" s="86"/>
+      <c r="O130" s="62"/>
       <c r="P130"/>
     </row>
-    <row r="131" spans="1:17">
+    <row r="131" spans="1:16">
       <c r="A131" s="23">
         <v>43034</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C131" s="23">
         <v>4303</v>
@@ -7458,33 +8059,33 @@
         <v>3</v>
       </c>
       <c r="H131" t="s">
-        <v>221</v>
-      </c>
-      <c r="I131" s="65" t="s">
         <v>222</v>
       </c>
-      <c r="J131" s="55">
-        <v>2</v>
-      </c>
-      <c r="K131" s="55">
-        <v>0</v>
-      </c>
-      <c r="L131" s="55">
-        <v>0</v>
-      </c>
-      <c r="M131" s="55">
+      <c r="I131" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="J131" s="56">
+        <v>2</v>
+      </c>
+      <c r="K131" s="56">
+        <v>0</v>
+      </c>
+      <c r="L131" s="56">
+        <v>0</v>
+      </c>
+      <c r="M131" s="56">
         <v>5</v>
       </c>
-      <c r="N131" s="85"/>
-      <c r="O131" s="61"/>
+      <c r="N131" s="86"/>
+      <c r="O131" s="62"/>
       <c r="P131"/>
     </row>
-    <row r="132" spans="1:17">
+    <row r="132" spans="1:16">
       <c r="A132" s="23">
         <v>43035</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C132" s="23">
         <v>4303</v>
@@ -7502,33 +8103,33 @@
         <v>3</v>
       </c>
       <c r="H132" t="s">
-        <v>221</v>
-      </c>
-      <c r="I132" s="65" t="s">
         <v>222</v>
       </c>
-      <c r="J132" s="55">
-        <v>3</v>
-      </c>
-      <c r="K132" s="55">
-        <v>0</v>
-      </c>
-      <c r="L132" s="55">
-        <v>0</v>
-      </c>
-      <c r="M132" s="55">
+      <c r="I132" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="J132" s="56">
+        <v>3</v>
+      </c>
+      <c r="K132" s="56">
+        <v>0</v>
+      </c>
+      <c r="L132" s="56">
+        <v>0</v>
+      </c>
+      <c r="M132" s="56">
         <v>6</v>
       </c>
-      <c r="N132" s="85"/>
-      <c r="O132" s="61"/>
+      <c r="N132" s="86"/>
+      <c r="O132" s="62"/>
       <c r="P132"/>
     </row>
     <row r="133" spans="1:17">
       <c r="A133" s="23">
         <v>43036</v>
       </c>
-      <c r="B133" s="87" t="s">
-        <v>227</v>
+      <c r="B133" s="88" t="s">
+        <v>228</v>
       </c>
       <c r="C133" s="23">
         <v>4303</v>
@@ -7546,38 +8147,38 @@
         <v>3</v>
       </c>
       <c r="H133" t="s">
-        <v>221</v>
-      </c>
-      <c r="I133" s="65" t="s">
         <v>222</v>
       </c>
-      <c r="J133" s="55">
-        <v>4</v>
-      </c>
-      <c r="K133" s="55">
-        <v>0</v>
-      </c>
-      <c r="L133" s="55">
-        <v>0</v>
-      </c>
-      <c r="M133" s="55">
-        <v>0</v>
-      </c>
-      <c r="N133" s="85"/>
-      <c r="O133" s="86" t="s">
-        <v>228</v>
+      <c r="I133" s="66" t="s">
+        <v>223</v>
+      </c>
+      <c r="J133" s="56">
+        <v>4</v>
+      </c>
+      <c r="K133" s="56">
+        <v>0</v>
+      </c>
+      <c r="L133" s="56">
+        <v>0</v>
+      </c>
+      <c r="M133" s="56">
+        <v>0</v>
+      </c>
+      <c r="N133" s="86"/>
+      <c r="O133" s="87" t="s">
+        <v>229</v>
       </c>
       <c r="P133"/>
       <c r="Q133" s="2">
         <v>19006</v>
       </c>
     </row>
-    <row r="134" spans="1:17">
+    <row r="134" spans="1:15">
       <c r="A134" s="23">
         <v>44011</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C134" s="23">
         <v>4401</v>
@@ -7594,35 +8195,35 @@
       <c r="G134" s="23">
         <v>4</v>
       </c>
-      <c r="H134" s="75" t="s">
-        <v>230</v>
-      </c>
-      <c r="I134" s="65" t="s">
+      <c r="H134" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="J134" s="55">
-        <v>2</v>
-      </c>
-      <c r="K134" s="55">
-        <v>0</v>
-      </c>
-      <c r="L134" s="55">
-        <v>1</v>
-      </c>
-      <c r="M134" s="55">
-        <v>2</v>
-      </c>
-      <c r="N134" s="82"/>
-      <c r="O134" s="61" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17">
+      <c r="I134" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="J134" s="56">
+        <v>2</v>
+      </c>
+      <c r="K134" s="56">
+        <v>0</v>
+      </c>
+      <c r="L134" s="56">
+        <v>1</v>
+      </c>
+      <c r="M134" s="56">
+        <v>2</v>
+      </c>
+      <c r="N134" s="83"/>
+      <c r="O134" s="62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" s="23">
         <v>44012</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C135" s="23">
         <v>4401</v>
@@ -7639,35 +8240,35 @@
       <c r="G135" s="23">
         <v>4</v>
       </c>
-      <c r="H135" s="75" t="s">
-        <v>230</v>
-      </c>
-      <c r="I135" s="65" t="s">
+      <c r="H135" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="J135" s="59">
-        <v>2</v>
-      </c>
-      <c r="K135" s="59">
-        <v>0</v>
-      </c>
-      <c r="L135" s="59">
-        <v>1</v>
-      </c>
-      <c r="M135" s="59">
-        <v>3</v>
-      </c>
-      <c r="N135" s="82"/>
-      <c r="O135" s="61" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17">
+      <c r="I135" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="J135" s="60">
+        <v>2</v>
+      </c>
+      <c r="K135" s="60">
+        <v>0</v>
+      </c>
+      <c r="L135" s="60">
+        <v>1</v>
+      </c>
+      <c r="M135" s="60">
+        <v>3</v>
+      </c>
+      <c r="N135" s="83"/>
+      <c r="O135" s="62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" s="23">
         <v>44013</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C136" s="23">
         <v>4401</v>
@@ -7684,35 +8285,35 @@
       <c r="G136" s="23">
         <v>4</v>
       </c>
-      <c r="H136" s="75" t="s">
-        <v>230</v>
-      </c>
-      <c r="I136" s="65" t="s">
+      <c r="H136" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="J136" s="59">
-        <v>3</v>
-      </c>
-      <c r="K136" s="59">
-        <v>0</v>
-      </c>
-      <c r="L136" s="59">
-        <v>1</v>
-      </c>
-      <c r="M136" s="59">
-        <v>4</v>
-      </c>
-      <c r="N136" s="82"/>
-      <c r="O136" s="61" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17">
+      <c r="I136" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="J136" s="60">
+        <v>3</v>
+      </c>
+      <c r="K136" s="60">
+        <v>0</v>
+      </c>
+      <c r="L136" s="60">
+        <v>1</v>
+      </c>
+      <c r="M136" s="60">
+        <v>4</v>
+      </c>
+      <c r="N136" s="83"/>
+      <c r="O136" s="62" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" s="23">
         <v>44014</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C137" s="23">
         <v>4401</v>
@@ -7729,35 +8330,35 @@
       <c r="G137" s="23">
         <v>4</v>
       </c>
-      <c r="H137" s="75" t="s">
-        <v>230</v>
-      </c>
-      <c r="I137" s="65" t="s">
+      <c r="H137" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="J137" s="59">
-        <v>3</v>
-      </c>
-      <c r="K137" s="59">
-        <v>0</v>
-      </c>
-      <c r="L137" s="59">
-        <v>2</v>
-      </c>
-      <c r="M137" s="59">
-        <v>2</v>
-      </c>
-      <c r="N137" s="82"/>
-      <c r="O137" s="61" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17">
+      <c r="I137" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="J137" s="60">
+        <v>3</v>
+      </c>
+      <c r="K137" s="60">
+        <v>0</v>
+      </c>
+      <c r="L137" s="60">
+        <v>2</v>
+      </c>
+      <c r="M137" s="60">
+        <v>2</v>
+      </c>
+      <c r="N137" s="83"/>
+      <c r="O137" s="62" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" s="23">
         <v>44015</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C138" s="23">
         <v>4401</v>
@@ -7774,35 +8375,35 @@
       <c r="G138" s="23">
         <v>4</v>
       </c>
-      <c r="H138" s="75" t="s">
-        <v>230</v>
-      </c>
-      <c r="I138" s="65" t="s">
+      <c r="H138" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="J138" s="59">
-        <v>4</v>
-      </c>
-      <c r="K138" s="59">
-        <v>0</v>
-      </c>
-      <c r="L138" s="59">
-        <v>2</v>
-      </c>
-      <c r="M138" s="59">
-        <v>4</v>
-      </c>
-      <c r="N138" s="78"/>
-      <c r="O138" s="60" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17">
+      <c r="I138" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="J138" s="60">
+        <v>4</v>
+      </c>
+      <c r="K138" s="60">
+        <v>0</v>
+      </c>
+      <c r="L138" s="60">
+        <v>2</v>
+      </c>
+      <c r="M138" s="60">
+        <v>4</v>
+      </c>
+      <c r="N138" s="79"/>
+      <c r="O138" s="61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
       <c r="A139" s="23">
         <v>44016</v>
       </c>
       <c r="B139" s="35" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C139" s="23">
         <v>4401</v>
@@ -7819,30 +8420,30 @@
       <c r="G139" s="23">
         <v>4</v>
       </c>
-      <c r="H139" s="75" t="s">
-        <v>230</v>
-      </c>
-      <c r="I139" s="65" t="s">
+      <c r="H139" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="J139" s="55">
-        <v>4</v>
-      </c>
-      <c r="K139" s="55">
-        <v>0</v>
-      </c>
-      <c r="L139" s="55">
-        <v>0</v>
-      </c>
-      <c r="M139" s="55">
-        <v>0</v>
-      </c>
-      <c r="N139" s="82"/>
-      <c r="O139" s="61" t="s">
-        <v>237</v>
+      <c r="I139" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="J139" s="56">
+        <v>4</v>
+      </c>
+      <c r="K139" s="56">
+        <v>0</v>
+      </c>
+      <c r="L139" s="56">
+        <v>0</v>
+      </c>
+      <c r="M139" s="56">
+        <v>0</v>
+      </c>
+      <c r="N139" s="83"/>
+      <c r="O139" s="62" t="s">
+        <v>238</v>
       </c>
       <c r="P139" s="44" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="140" spans="1:17">
@@ -7850,7 +8451,7 @@
         <v>45011</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C140" s="23">
         <v>4501</v>
@@ -7867,26 +8468,26 @@
       <c r="G140" s="19">
         <v>5</v>
       </c>
-      <c r="H140" s="75" t="s">
-        <v>240</v>
-      </c>
-      <c r="I140" s="65" t="s">
+      <c r="H140" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="J140" s="55">
+      <c r="I140" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="J140" s="56">
         <v>-2</v>
       </c>
-      <c r="K140" s="55">
-        <v>0</v>
-      </c>
-      <c r="L140" s="55">
-        <v>0</v>
-      </c>
-      <c r="M140" s="55">
-        <v>0</v>
-      </c>
-      <c r="N140" s="82"/>
-      <c r="O140" s="61"/>
+      <c r="K140" s="56">
+        <v>0</v>
+      </c>
+      <c r="L140" s="56">
+        <v>0</v>
+      </c>
+      <c r="M140" s="56">
+        <v>0</v>
+      </c>
+      <c r="N140" s="83"/>
+      <c r="O140" s="62"/>
       <c r="P140"/>
       <c r="Q140"/>
     </row>
@@ -7895,7 +8496,7 @@
         <v>45012</v>
       </c>
       <c r="B141" s="18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C141" s="23">
         <v>4501</v>
@@ -7912,26 +8513,26 @@
       <c r="G141" s="19">
         <v>5</v>
       </c>
-      <c r="H141" s="75" t="s">
-        <v>240</v>
-      </c>
-      <c r="I141" s="65" t="s">
+      <c r="H141" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="J141" s="55">
+      <c r="I141" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="J141" s="56">
         <v>-2</v>
       </c>
-      <c r="K141" s="55">
-        <v>0</v>
-      </c>
-      <c r="L141" s="55">
-        <v>0</v>
-      </c>
-      <c r="M141" s="55">
-        <v>0</v>
-      </c>
-      <c r="N141" s="82"/>
-      <c r="O141" s="61"/>
+      <c r="K141" s="56">
+        <v>0</v>
+      </c>
+      <c r="L141" s="56">
+        <v>0</v>
+      </c>
+      <c r="M141" s="56">
+        <v>0</v>
+      </c>
+      <c r="N141" s="83"/>
+      <c r="O141" s="62"/>
       <c r="P141"/>
       <c r="Q141"/>
     </row>
@@ -7940,7 +8541,7 @@
         <v>45013</v>
       </c>
       <c r="B142" s="18" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C142" s="23">
         <v>4501</v>
@@ -7957,26 +8558,26 @@
       <c r="G142" s="19">
         <v>5</v>
       </c>
-      <c r="H142" s="75" t="s">
-        <v>240</v>
-      </c>
-      <c r="I142" s="65" t="s">
+      <c r="H142" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="J142" s="55">
+      <c r="I142" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="J142" s="56">
         <v>-2</v>
       </c>
-      <c r="K142" s="55">
-        <v>0</v>
-      </c>
-      <c r="L142" s="55">
-        <v>0</v>
-      </c>
-      <c r="M142" s="55">
-        <v>0</v>
-      </c>
-      <c r="N142" s="82"/>
-      <c r="O142" s="61"/>
+      <c r="K142" s="56">
+        <v>0</v>
+      </c>
+      <c r="L142" s="56">
+        <v>0</v>
+      </c>
+      <c r="M142" s="56">
+        <v>0</v>
+      </c>
+      <c r="N142" s="83"/>
+      <c r="O142" s="62"/>
       <c r="P142"/>
       <c r="Q142"/>
     </row>
@@ -7985,7 +8586,7 @@
         <v>45014</v>
       </c>
       <c r="B143" s="18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C143" s="23">
         <v>4501</v>
@@ -8002,26 +8603,26 @@
       <c r="G143" s="19">
         <v>5</v>
       </c>
-      <c r="H143" s="75" t="s">
-        <v>240</v>
-      </c>
-      <c r="I143" s="65" t="s">
+      <c r="H143" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="J143" s="55">
+      <c r="I143" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="J143" s="56">
         <v>-2</v>
       </c>
-      <c r="K143" s="55">
-        <v>0</v>
-      </c>
-      <c r="L143" s="55">
-        <v>0</v>
-      </c>
-      <c r="M143" s="55">
-        <v>0</v>
-      </c>
-      <c r="N143" s="82"/>
-      <c r="O143" s="61"/>
+      <c r="K143" s="56">
+        <v>0</v>
+      </c>
+      <c r="L143" s="56">
+        <v>0</v>
+      </c>
+      <c r="M143" s="56">
+        <v>0</v>
+      </c>
+      <c r="N143" s="83"/>
+      <c r="O143" s="62"/>
       <c r="P143"/>
       <c r="Q143"/>
     </row>
@@ -8030,7 +8631,7 @@
         <v>45015</v>
       </c>
       <c r="B144" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C144" s="23">
         <v>4501</v>
@@ -8047,26 +8648,26 @@
       <c r="G144" s="19">
         <v>5</v>
       </c>
-      <c r="H144" s="75" t="s">
-        <v>240</v>
-      </c>
-      <c r="I144" s="65" t="s">
+      <c r="H144" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="J144" s="55">
+      <c r="I144" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="J144" s="56">
         <v>-2</v>
       </c>
-      <c r="K144" s="55">
-        <v>0</v>
-      </c>
-      <c r="L144" s="55">
-        <v>0</v>
-      </c>
-      <c r="M144" s="55">
-        <v>0</v>
-      </c>
-      <c r="N144" s="82"/>
-      <c r="O144" s="61"/>
+      <c r="K144" s="56">
+        <v>0</v>
+      </c>
+      <c r="L144" s="56">
+        <v>0</v>
+      </c>
+      <c r="M144" s="56">
+        <v>0</v>
+      </c>
+      <c r="N144" s="83"/>
+      <c r="O144" s="62"/>
       <c r="P144"/>
       <c r="Q144"/>
     </row>
@@ -8075,7 +8676,7 @@
         <v>45016</v>
       </c>
       <c r="B145" s="18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C145" s="23">
         <v>4501</v>
@@ -8092,26 +8693,26 @@
       <c r="G145" s="19">
         <v>5</v>
       </c>
-      <c r="H145" s="75" t="s">
-        <v>240</v>
-      </c>
-      <c r="I145" s="65" t="s">
+      <c r="H145" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="J145" s="55">
+      <c r="I145" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="J145" s="56">
         <v>-2</v>
       </c>
-      <c r="K145" s="55">
-        <v>0</v>
-      </c>
-      <c r="L145" s="55">
-        <v>0</v>
-      </c>
-      <c r="M145" s="55">
-        <v>0</v>
-      </c>
-      <c r="N145" s="82"/>
-      <c r="O145" s="61"/>
+      <c r="K145" s="56">
+        <v>0</v>
+      </c>
+      <c r="L145" s="56">
+        <v>0</v>
+      </c>
+      <c r="M145" s="56">
+        <v>0</v>
+      </c>
+      <c r="N145" s="83"/>
+      <c r="O145" s="62"/>
       <c r="P145"/>
       <c r="Q145"/>
     </row>
@@ -8120,7 +8721,7 @@
         <v>45017</v>
       </c>
       <c r="B146" s="35" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C146" s="23">
         <v>4501</v>
@@ -8137,39 +8738,39 @@
       <c r="G146" s="19">
         <v>5</v>
       </c>
-      <c r="H146" s="75" t="s">
-        <v>240</v>
-      </c>
-      <c r="I146" s="65" t="s">
+      <c r="H146" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="J146" s="55">
-        <v>0</v>
-      </c>
-      <c r="K146" s="59">
-        <v>0</v>
-      </c>
-      <c r="L146" s="59">
-        <v>0</v>
-      </c>
-      <c r="M146" s="59">
-        <v>0</v>
-      </c>
-      <c r="N146" s="82"/>
-      <c r="O146" s="89" t="s">
-        <v>248</v>
+      <c r="I146" s="66" t="s">
+        <v>242</v>
+      </c>
+      <c r="J146" s="56">
+        <v>0</v>
+      </c>
+      <c r="K146" s="60">
+        <v>0</v>
+      </c>
+      <c r="L146" s="60">
+        <v>0</v>
+      </c>
+      <c r="M146" s="60">
+        <v>0</v>
+      </c>
+      <c r="N146" s="83"/>
+      <c r="O146" s="90" t="s">
+        <v>249</v>
       </c>
       <c r="P146"/>
-      <c r="Q146" s="2">
-        <v>46006</v>
-      </c>
-    </row>
-    <row r="147" spans="1:17">
+      <c r="Q146" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="23">
         <v>45021</v>
       </c>
       <c r="B147" s="18" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C147" s="23">
         <v>4502</v>
@@ -8186,11 +8787,11 @@
       <c r="G147" s="19">
         <v>5</v>
       </c>
-      <c r="H147" s="75" t="s">
-        <v>250</v>
-      </c>
-      <c r="I147" s="65" t="s">
-        <v>251</v>
+      <c r="H147" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="I147" s="66" t="s">
+        <v>253</v>
       </c>
       <c r="J147" s="47">
         <v>-1</v>
@@ -8204,15 +8805,15 @@
       <c r="M147" s="4">
         <v>0</v>
       </c>
-      <c r="N147" s="82"/>
-      <c r="O147" s="61"/>
-    </row>
-    <row r="148" spans="1:17">
+      <c r="N147" s="83"/>
+      <c r="O147" s="62"/>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="23">
         <v>45022</v>
       </c>
       <c r="B148" s="18" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C148" s="23">
         <v>4502</v>
@@ -8229,11 +8830,11 @@
       <c r="G148" s="19">
         <v>5</v>
       </c>
-      <c r="H148" s="75" t="s">
-        <v>250</v>
-      </c>
-      <c r="I148" s="65" t="s">
-        <v>251</v>
+      <c r="H148" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="I148" s="66" t="s">
+        <v>253</v>
       </c>
       <c r="J148" s="4">
         <v>-2</v>
@@ -8247,15 +8848,15 @@
       <c r="M148" s="4">
         <v>0</v>
       </c>
-      <c r="N148" s="82"/>
-      <c r="O148" s="61"/>
-    </row>
-    <row r="149" spans="1:17">
+      <c r="N148" s="83"/>
+      <c r="O148" s="62"/>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="23">
         <v>45023</v>
       </c>
       <c r="B149" s="18" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C149" s="23">
         <v>4502</v>
@@ -8272,11 +8873,11 @@
       <c r="G149" s="19">
         <v>5</v>
       </c>
-      <c r="H149" s="75" t="s">
-        <v>250</v>
-      </c>
-      <c r="I149" s="65" t="s">
-        <v>251</v>
+      <c r="H149" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="I149" s="66" t="s">
+        <v>253</v>
       </c>
       <c r="J149" s="4">
         <v>-2</v>
@@ -8290,15 +8891,15 @@
       <c r="M149" s="4">
         <v>0</v>
       </c>
-      <c r="N149" s="82"/>
-      <c r="O149" s="61"/>
-    </row>
-    <row r="150" spans="1:17">
+      <c r="N149" s="83"/>
+      <c r="O149" s="62"/>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="23">
         <v>45024</v>
       </c>
       <c r="B150" s="18" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C150" s="23">
         <v>4502</v>
@@ -8315,11 +8916,11 @@
       <c r="G150" s="19">
         <v>5</v>
       </c>
-      <c r="H150" s="75" t="s">
-        <v>250</v>
-      </c>
-      <c r="I150" s="65" t="s">
-        <v>251</v>
+      <c r="H150" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="I150" s="66" t="s">
+        <v>253</v>
       </c>
       <c r="J150" s="4">
         <v>-3</v>
@@ -8333,15 +8934,15 @@
       <c r="M150" s="4">
         <v>0</v>
       </c>
-      <c r="N150" s="78"/>
-      <c r="O150" s="60"/>
-    </row>
-    <row r="151" spans="1:17">
+      <c r="N150" s="79"/>
+      <c r="O150" s="61"/>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" s="23">
         <v>45025</v>
       </c>
       <c r="B151" s="18" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C151" s="23">
         <v>4502</v>
@@ -8358,11 +8959,11 @@
       <c r="G151" s="19">
         <v>5</v>
       </c>
-      <c r="H151" s="75" t="s">
-        <v>250</v>
-      </c>
-      <c r="I151" s="65" t="s">
-        <v>251</v>
+      <c r="H151" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="I151" s="66" t="s">
+        <v>253</v>
       </c>
       <c r="J151" s="4">
         <v>-3</v>
@@ -8376,15 +8977,15 @@
       <c r="M151" s="4">
         <v>0</v>
       </c>
-      <c r="N151" s="82"/>
-      <c r="O151" s="61"/>
+      <c r="N151" s="83"/>
+      <c r="O151" s="62"/>
     </row>
     <row r="152" spans="1:17">
       <c r="A152" s="23">
         <v>45026</v>
       </c>
       <c r="B152" s="35" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C152" s="23">
         <v>4502</v>
@@ -8401,11 +9002,11 @@
       <c r="G152" s="19">
         <v>5</v>
       </c>
-      <c r="H152" s="75" t="s">
-        <v>250</v>
-      </c>
-      <c r="I152" s="65" t="s">
-        <v>251</v>
+      <c r="H152" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="I152" s="66" t="s">
+        <v>253</v>
       </c>
       <c r="J152" s="4">
         <v>0</v>
@@ -8419,9 +9020,9 @@
       <c r="M152" s="4">
         <v>0</v>
       </c>
-      <c r="N152" s="82"/>
-      <c r="O152" s="61" t="s">
-        <v>257</v>
+      <c r="N152" s="83"/>
+      <c r="O152" s="62" t="s">
+        <v>259</v>
       </c>
       <c r="Q152" s="2">
         <v>47006</v>
@@ -8432,7 +9033,7 @@
         <v>45027</v>
       </c>
       <c r="B153" s="35" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C153" s="23">
         <v>4502</v>
@@ -8449,11 +9050,11 @@
       <c r="G153" s="19">
         <v>5</v>
       </c>
-      <c r="H153" s="75" t="s">
-        <v>250</v>
-      </c>
-      <c r="I153" s="65" t="s">
-        <v>251</v>
+      <c r="H153" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="I153" s="66" t="s">
+        <v>253</v>
       </c>
       <c r="J153" s="4">
         <v>0</v>
@@ -8467,20 +9068,20 @@
       <c r="M153" s="4">
         <v>0</v>
       </c>
-      <c r="N153" s="82"/>
-      <c r="O153" s="61" t="s">
-        <v>259</v>
+      <c r="N153" s="83"/>
+      <c r="O153" s="62" t="s">
+        <v>261</v>
       </c>
       <c r="Q153" s="2">
         <v>47007</v>
       </c>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:15">
       <c r="A154" s="23">
         <v>45031</v>
       </c>
       <c r="B154" s="18" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C154" s="23">
         <v>4503</v>
@@ -8497,11 +9098,11 @@
       <c r="G154" s="19">
         <v>5</v>
       </c>
-      <c r="H154" s="75" t="s">
-        <v>261</v>
-      </c>
-      <c r="I154" s="65" t="s">
-        <v>262</v>
+      <c r="H154" s="76" t="s">
+        <v>263</v>
+      </c>
+      <c r="I154" s="66" t="s">
+        <v>264</v>
       </c>
       <c r="J154" s="47">
         <v>-1</v>
@@ -8515,15 +9116,15 @@
       <c r="M154" s="47">
         <v>0</v>
       </c>
-      <c r="N154" s="82"/>
-      <c r="O154" s="61"/>
-    </row>
-    <row r="155" spans="1:17">
+      <c r="N154" s="83"/>
+      <c r="O154" s="62"/>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" s="23">
         <v>45032</v>
       </c>
       <c r="B155" s="18" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C155" s="23">
         <v>4503</v>
@@ -8540,11 +9141,11 @@
       <c r="G155" s="19">
         <v>5</v>
       </c>
-      <c r="H155" s="75" t="s">
-        <v>261</v>
-      </c>
-      <c r="I155" s="65" t="s">
-        <v>262</v>
+      <c r="H155" s="76" t="s">
+        <v>263</v>
+      </c>
+      <c r="I155" s="66" t="s">
+        <v>264</v>
       </c>
       <c r="J155" s="4">
         <v>-1</v>
@@ -8558,15 +9159,15 @@
       <c r="M155" s="4">
         <v>0</v>
       </c>
-      <c r="N155" s="82"/>
-      <c r="O155" s="61"/>
-    </row>
-    <row r="156" spans="1:17">
+      <c r="N155" s="83"/>
+      <c r="O155" s="62"/>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="23">
         <v>45033</v>
       </c>
       <c r="B156" s="18" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C156" s="23">
         <v>4503</v>
@@ -8583,11 +9184,11 @@
       <c r="G156" s="19">
         <v>5</v>
       </c>
-      <c r="H156" s="75" t="s">
-        <v>261</v>
-      </c>
-      <c r="I156" s="65" t="s">
-        <v>262</v>
+      <c r="H156" s="76" t="s">
+        <v>263</v>
+      </c>
+      <c r="I156" s="66" t="s">
+        <v>264</v>
       </c>
       <c r="J156" s="4">
         <v>-2</v>
@@ -8601,15 +9202,15 @@
       <c r="M156" s="4">
         <v>0</v>
       </c>
-      <c r="N156" s="82"/>
-      <c r="O156" s="61"/>
-    </row>
-    <row r="157" spans="1:17">
+      <c r="N156" s="83"/>
+      <c r="O156" s="62"/>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="23">
         <v>45034</v>
       </c>
       <c r="B157" s="18" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C157" s="23">
         <v>4503</v>
@@ -8626,11 +9227,11 @@
       <c r="G157" s="19">
         <v>5</v>
       </c>
-      <c r="H157" s="75" t="s">
-        <v>261</v>
-      </c>
-      <c r="I157" s="65" t="s">
-        <v>262</v>
+      <c r="H157" s="76" t="s">
+        <v>263</v>
+      </c>
+      <c r="I157" s="66" t="s">
+        <v>264</v>
       </c>
       <c r="J157" s="4">
         <v>-2</v>
@@ -8644,15 +9245,15 @@
       <c r="M157" s="4">
         <v>0</v>
       </c>
-      <c r="N157" s="82"/>
-      <c r="O157" s="61"/>
-    </row>
-    <row r="158" spans="1:17">
+      <c r="N157" s="83"/>
+      <c r="O157" s="62"/>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="23">
         <v>45035</v>
       </c>
       <c r="B158" s="18" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C158" s="23">
         <v>4503</v>
@@ -8669,11 +9270,11 @@
       <c r="G158" s="19">
         <v>5</v>
       </c>
-      <c r="H158" s="75" t="s">
-        <v>261</v>
-      </c>
-      <c r="I158" s="65" t="s">
-        <v>262</v>
+      <c r="H158" s="76" t="s">
+        <v>263</v>
+      </c>
+      <c r="I158" s="66" t="s">
+        <v>264</v>
       </c>
       <c r="J158" s="4">
         <v>-3</v>
@@ -8687,15 +9288,15 @@
       <c r="M158" s="4">
         <v>0</v>
       </c>
-      <c r="N158" s="82"/>
-      <c r="O158" s="61"/>
-    </row>
-    <row r="159" spans="1:17">
+      <c r="N158" s="83"/>
+      <c r="O158" s="62"/>
+    </row>
+    <row r="159" spans="1:16">
       <c r="A159" s="23">
         <v>45036</v>
       </c>
       <c r="B159" s="35" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C159" s="23">
         <v>4503</v>
@@ -8713,10 +9314,10 @@
         <v>5</v>
       </c>
       <c r="H159" s="29" t="s">
-        <v>261</v>
-      </c>
-      <c r="I159" s="65" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="I159" s="66" t="s">
+        <v>264</v>
       </c>
       <c r="J159" s="4">
         <v>0</v>
@@ -8730,12 +9331,12 @@
       <c r="M159" s="4">
         <v>0</v>
       </c>
-      <c r="N159" s="82"/>
-      <c r="O159" s="61" t="s">
-        <v>268</v>
+      <c r="N159" s="83"/>
+      <c r="O159" s="62" t="s">
+        <v>270</v>
       </c>
       <c r="P159" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="160" spans="1:17">
@@ -8743,7 +9344,7 @@
         <v>45037</v>
       </c>
       <c r="B160" s="35" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C160" s="23">
         <v>4503</v>
@@ -8760,11 +9361,11 @@
       <c r="G160" s="23">
         <v>5</v>
       </c>
-      <c r="H160" s="75" t="s">
-        <v>261</v>
-      </c>
-      <c r="I160" s="65" t="s">
-        <v>262</v>
+      <c r="H160" s="76" t="s">
+        <v>263</v>
+      </c>
+      <c r="I160" s="66" t="s">
+        <v>264</v>
       </c>
       <c r="J160" s="47">
         <v>0</v>
@@ -8778,137 +9379,137 @@
       <c r="M160" s="47">
         <v>0</v>
       </c>
-      <c r="N160" s="82"/>
-      <c r="O160" s="61" t="s">
-        <v>271</v>
+      <c r="N160" s="83"/>
+      <c r="O160" s="62" t="s">
+        <v>273</v>
       </c>
       <c r="Q160" s="2">
         <v>48007</v>
       </c>
     </row>
     <row r="161" spans="2:15">
-      <c r="B161" s="62"/>
-      <c r="D161" s="69"/>
-      <c r="E161" s="69"/>
-      <c r="F161" s="69"/>
-      <c r="G161" s="69"/>
-      <c r="J161" s="59"/>
-      <c r="K161" s="59"/>
-      <c r="L161" s="59"/>
-      <c r="M161" s="59"/>
-      <c r="N161" s="78"/>
-      <c r="O161" s="60"/>
+      <c r="B161" s="63"/>
+      <c r="D161" s="70"/>
+      <c r="E161" s="70"/>
+      <c r="F161" s="70"/>
+      <c r="G161" s="70"/>
+      <c r="J161" s="60"/>
+      <c r="K161" s="60"/>
+      <c r="L161" s="60"/>
+      <c r="M161" s="60"/>
+      <c r="N161" s="79"/>
+      <c r="O161" s="61"/>
     </row>
     <row r="162" spans="2:15">
-      <c r="B162" s="62"/>
-      <c r="D162" s="69"/>
-      <c r="E162" s="69"/>
-      <c r="F162" s="69"/>
-      <c r="G162" s="69"/>
-      <c r="J162" s="59"/>
-      <c r="K162" s="59"/>
-      <c r="L162" s="59"/>
-      <c r="M162" s="59"/>
-      <c r="N162" s="82"/>
-      <c r="O162" s="61"/>
+      <c r="B162" s="63"/>
+      <c r="D162" s="70"/>
+      <c r="E162" s="70"/>
+      <c r="F162" s="70"/>
+      <c r="G162" s="70"/>
+      <c r="J162" s="60"/>
+      <c r="K162" s="60"/>
+      <c r="L162" s="60"/>
+      <c r="M162" s="60"/>
+      <c r="N162" s="83"/>
+      <c r="O162" s="62"/>
     </row>
     <row r="163" spans="2:15">
-      <c r="B163" s="62"/>
-      <c r="D163" s="69"/>
-      <c r="E163" s="69"/>
-      <c r="G163" s="69"/>
-      <c r="J163" s="59"/>
-      <c r="K163" s="59"/>
-      <c r="L163" s="59"/>
-      <c r="M163" s="59"/>
-      <c r="N163" s="82"/>
-      <c r="O163" s="61"/>
+      <c r="B163" s="63"/>
+      <c r="D163" s="70"/>
+      <c r="E163" s="70"/>
+      <c r="G163" s="70"/>
+      <c r="J163" s="60"/>
+      <c r="K163" s="60"/>
+      <c r="L163" s="60"/>
+      <c r="M163" s="60"/>
+      <c r="N163" s="83"/>
+      <c r="O163" s="62"/>
     </row>
     <row r="164" spans="2:15">
-      <c r="B164" s="62"/>
-      <c r="D164" s="69"/>
-      <c r="F164" s="69"/>
-      <c r="G164" s="69"/>
-      <c r="J164" s="59"/>
-      <c r="K164" s="59"/>
-      <c r="L164" s="59"/>
-      <c r="M164" s="59"/>
-      <c r="N164" s="82"/>
-      <c r="O164" s="61"/>
+      <c r="B164" s="63"/>
+      <c r="D164" s="70"/>
+      <c r="F164" s="70"/>
+      <c r="G164" s="70"/>
+      <c r="J164" s="60"/>
+      <c r="K164" s="60"/>
+      <c r="L164" s="60"/>
+      <c r="M164" s="60"/>
+      <c r="N164" s="83"/>
+      <c r="O164" s="62"/>
     </row>
     <row r="165" spans="2:15">
-      <c r="B165" s="62"/>
-      <c r="D165" s="69"/>
-      <c r="F165" s="69"/>
-      <c r="G165" s="69"/>
-      <c r="J165" s="59"/>
-      <c r="K165" s="59"/>
-      <c r="L165" s="59"/>
-      <c r="M165" s="59"/>
-      <c r="N165" s="82"/>
-      <c r="O165" s="61"/>
+      <c r="B165" s="63"/>
+      <c r="D165" s="70"/>
+      <c r="F165" s="70"/>
+      <c r="G165" s="70"/>
+      <c r="J165" s="60"/>
+      <c r="K165" s="60"/>
+      <c r="L165" s="60"/>
+      <c r="M165" s="60"/>
+      <c r="N165" s="83"/>
+      <c r="O165" s="62"/>
     </row>
     <row r="166" spans="2:15">
-      <c r="B166" s="59"/>
-      <c r="D166" s="69"/>
-      <c r="F166" s="69"/>
-      <c r="G166" s="69"/>
-      <c r="J166" s="59"/>
-      <c r="K166" s="59"/>
-      <c r="L166" s="59"/>
-      <c r="M166" s="59"/>
-      <c r="N166" s="82"/>
-      <c r="O166" s="61"/>
+      <c r="B166" s="60"/>
+      <c r="D166" s="70"/>
+      <c r="F166" s="70"/>
+      <c r="G166" s="70"/>
+      <c r="J166" s="60"/>
+      <c r="K166" s="60"/>
+      <c r="L166" s="60"/>
+      <c r="M166" s="60"/>
+      <c r="N166" s="83"/>
+      <c r="O166" s="62"/>
     </row>
     <row r="167" spans="2:15">
-      <c r="B167" s="88"/>
-      <c r="D167" s="69"/>
-      <c r="F167" s="69"/>
-      <c r="G167" s="69"/>
-      <c r="J167" s="59"/>
-      <c r="K167" s="59"/>
-      <c r="L167" s="59"/>
-      <c r="M167" s="59"/>
-      <c r="N167" s="82"/>
-      <c r="O167" s="61"/>
+      <c r="B167" s="89"/>
+      <c r="D167" s="70"/>
+      <c r="F167" s="70"/>
+      <c r="G167" s="70"/>
+      <c r="J167" s="60"/>
+      <c r="K167" s="60"/>
+      <c r="L167" s="60"/>
+      <c r="M167" s="60"/>
+      <c r="N167" s="83"/>
+      <c r="O167" s="62"/>
     </row>
     <row r="168" spans="2:15">
-      <c r="B168" s="88"/>
-      <c r="F168" s="69"/>
-      <c r="J168" s="59"/>
-      <c r="K168" s="59"/>
-      <c r="L168" s="59"/>
-      <c r="M168" s="59"/>
-      <c r="N168" s="82"/>
-      <c r="O168" s="61"/>
+      <c r="B168" s="89"/>
+      <c r="F168" s="70"/>
+      <c r="J168" s="60"/>
+      <c r="K168" s="60"/>
+      <c r="L168" s="60"/>
+      <c r="M168" s="60"/>
+      <c r="N168" s="83"/>
+      <c r="O168" s="62"/>
     </row>
     <row r="169" spans="2:15">
-      <c r="B169" s="88"/>
-      <c r="J169" s="59"/>
-      <c r="K169" s="59"/>
-      <c r="L169" s="59"/>
-      <c r="M169" s="59"/>
-      <c r="N169" s="82"/>
-      <c r="O169" s="61"/>
-    </row>
-    <row r="170" spans="2:15">
-      <c r="F170" s="69"/>
-      <c r="N170" s="82"/>
-      <c r="O170" s="61"/>
-    </row>
-    <row r="171" spans="2:15">
-      <c r="F171" s="69"/>
-      <c r="N171" s="78"/>
-      <c r="O171" s="60"/>
-    </row>
-    <row r="172" spans="2:15">
-      <c r="F172" s="69"/>
-      <c r="N172" s="82"/>
-      <c r="O172" s="61"/>
-    </row>
-    <row r="173" spans="2:15">
-      <c r="N173" s="82"/>
-      <c r="O173" s="61"/>
+      <c r="B169" s="89"/>
+      <c r="J169" s="60"/>
+      <c r="K169" s="60"/>
+      <c r="L169" s="60"/>
+      <c r="M169" s="60"/>
+      <c r="N169" s="83"/>
+      <c r="O169" s="62"/>
+    </row>
+    <row r="170" spans="6:15">
+      <c r="F170" s="70"/>
+      <c r="N170" s="83"/>
+      <c r="O170" s="62"/>
+    </row>
+    <row r="171" spans="6:15">
+      <c r="F171" s="70"/>
+      <c r="N171" s="79"/>
+      <c r="O171" s="61"/>
+    </row>
+    <row r="172" spans="6:15">
+      <c r="F172" s="70"/>
+      <c r="N172" s="83"/>
+      <c r="O172" s="62"/>
+    </row>
+    <row r="173" spans="14:15">
+      <c r="N173" s="83"/>
+      <c r="O173" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -8916,11 +9517,11 @@
     <mergeCell ref="G1:G4"/>
     <mergeCell ref="H1:H4"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B133" r:id="rId1" tooltip="https://baike.baidu.com/item/%E5%B0%91%E6%B3%BD%E5%89%91"/>
+    <hyperlink ref="B133" r:id="rId1" display="少泽剑" tooltip="https://baike.baidu.com/item/%E5%B0%91%E6%B3%BD%E5%89%91"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>